--- a/xlsx/运输_intext.xlsx
+++ b/xlsx/运输_intext.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="793">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="786">
   <si>
     <t>运输</t>
   </si>
@@ -26,7 +26,7 @@
     <t>https://zh.wikipedia.org/wiki/%E9%81%8B%E8%BC%B8%E5%B7%A5%E5%85%B7</t>
   </si>
   <si>
-    <t>運輸工具</t>
+    <t>运输工具</t>
   </si>
   <si>
     <t>政策_政策_加州_运输</t>
@@ -41,13 +41,13 @@
     <t>https://zh.wikipedia.org/wiki/%E7%B6%93%E6%BF%9F</t>
   </si>
   <si>
-    <t>經濟</t>
+    <t>经济</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E8%B3%BC%E7%89%A9</t>
   </si>
   <si>
-    <t>購物</t>
+    <t>购物</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E4%BA%A4%E9%80%9A</t>
@@ -65,7 +65,7 @@
     <t>https://zh.wikipedia.org/wiki/%E4%BA%A4%E9%80%9A%E6%93%81%E6%93%A0</t>
   </si>
   <si>
-    <t>交通擁擠</t>
+    <t>交通拥挤</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E8%BF%90%E8%BE%93%E6%96%B9%E5%BC%8F</t>
@@ -77,7 +77,7 @@
     <t>https://zh.wikipedia.org/wiki/%E4%BA%BA%E5%8A%9B%E9%81%8B%E8%BC%B8</t>
   </si>
   <si>
-    <t>人力運輸</t>
+    <t>人力运输</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E8%82%8C%E8%82%89</t>
@@ -89,7 +89,7 @@
     <t>https://zh.wikipedia.org/wiki/%E8%B2%A8%E7%89%A9</t>
   </si>
   <si>
-    <t>貨物</t>
+    <t>货物</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%AD%A5%E8%A1%8C</t>
@@ -203,7 +203,7 @@
     <t>https://zh.wikipedia.org/wiki/%E5%BD%B9%E7%94%A8%E5%8B%95%E7%89%A9</t>
   </si>
   <si>
-    <t>役用動物</t>
+    <t>役用动物</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E8%88%AA%E7%A9%BA</t>
@@ -239,7 +239,7 @@
     <t>https://zh.wikipedia.org/wiki/%E5%9B%BA%E5%AE%9A%E7%BF%BC%E9%A3%9B%E6%A9%9F</t>
   </si>
   <si>
-    <t>固定翼飛機</t>
+    <t>固定翼飞机</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%97%8B%E7%BF%BC%E6%9C%BA</t>
@@ -251,7 +251,7 @@
     <t>https://zh.wikipedia.org/wiki/%E8%87%AA%E8%BD%89%E6%97%8B%E7%BF%BC%E6%A9%9F</t>
   </si>
   <si>
-    <t>自轉旋翼機</t>
+    <t>自转旋翼机</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%9C%BA%E5%9C%BA</t>
@@ -281,7 +281,7 @@
     <t>https://zh.wikipedia.org/wiki/%E9%90%B5%E8%B7%AF%E9%81%8B%E8%BC%B8</t>
   </si>
   <si>
-    <t>鐵路運輸</t>
+    <t>铁路运输</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/ICE%E5%88%97%E8%BD%A6</t>
@@ -299,49 +299,49 @@
     <t>https://zh.wikipedia.org/wiki/%E9%90%B5%E8%B7%AF%E5%88%97%E8%BB%8A</t>
   </si>
   <si>
-    <t>鐵路列車</t>
+    <t>铁路列车</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E9%90%B5%E8%B7%AF%E6%A9%9F%E8%BB%8A</t>
   </si>
   <si>
-    <t>鐵路機車</t>
+    <t>铁路机车</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E8%92%B8%E6%B1%BD%E6%A9%9F%E8%BB%8A</t>
   </si>
   <si>
-    <t>蒸汽機車</t>
+    <t>蒸汽机车</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%9F%B4%E6%B2%B9%E6%A9%9F%E8%BB%8A</t>
   </si>
   <si>
-    <t>柴油機車</t>
+    <t>柴油机车</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E9%9B%BB%E6%B0%A3%E5%8C%96%E9%90%B5%E8%B7%AF</t>
   </si>
   <si>
-    <t>電氣化鐵路</t>
+    <t>电气化铁路</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E9%9B%BB%E5%8A%9B%E6%A9%9F%E8%BB%8A</t>
   </si>
   <si>
-    <t>電力機車</t>
+    <t>电力机车</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%8B%95%E5%8A%9B%E5%88%86%E6%95%A3%E5%BC%8F</t>
   </si>
   <si>
-    <t>動力分散式</t>
+    <t>动力分散式</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E9%81%93%E8%B7%AF%E9%81%8B%E8%BC%B8</t>
   </si>
   <si>
-    <t>道路運輸</t>
+    <t>道路运输</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%8A%A0%E5%88%A9%E7%A6%8F%E5%B0%BC%E4%BA%9A%E5%B7%9E</t>
@@ -359,7 +359,7 @@
     <t>https://zh.wikipedia.org/wiki/80%E8%99%9F%E5%B7%9E%E9%9A%9B%E5%85%AC%E8%B7%AF</t>
   </si>
   <si>
-    <t>80號州際公路</t>
+    <t>80号州际公路</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%9C%B0%E7%90%86</t>
@@ -419,13 +419,13 @@
     <t>https://zh.wikipedia.org/wiki/%E5%85%AC%E8%BB%8A</t>
   </si>
   <si>
-    <t>公車</t>
+    <t>公车</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%8D%A1%E8%BB%8A</t>
   </si>
   <si>
-    <t>卡車</t>
+    <t>卡车</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%91%A9%E6%89%98%E8%BD%A6</t>
@@ -521,7 +521,7 @@
     <t>https://zh.wikipedia.org/wiki/%E7%B8%B1%E8%B2%AB%E9%98%BF%E6%8B%89%E6%96%AF%E5%8A%A0%E7%AE%A1%E9%81%93</t>
   </si>
   <si>
-    <t>縱貫阿拉斯加管道</t>
+    <t>纵贯阿拉斯加管道</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%8E%9F%E6%B2%B9</t>
@@ -581,13 +581,13 @@
     <t>https://zh.wikipedia.org/wiki/%E7%BA%9C%E8%BB%8A</t>
   </si>
   <si>
-    <t>纜車</t>
+    <t>缆车</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E9%9B%BB%E5%8B%95%E6%89%B6%E6%A2%AF</t>
   </si>
   <si>
-    <t>電動扶梯</t>
+    <t>电动扶梯</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E8%88%AA%E5%A4%A9</t>
@@ -653,13 +653,13 @@
     <t>https://zh.wikipedia.org/wiki/%E4%BB%81%E5%B7%9D%E5%9C%8B%E9%9A%9B%E6%A9%9F%E5%A0%B4</t>
   </si>
   <si>
-    <t>仁川國際機場</t>
+    <t>仁川国际机场</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%A7%81%E4%BA%BA%E4%BC%81%E6%A5%AD</t>
   </si>
   <si>
-    <t>私人企業</t>
+    <t>私人企业</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%94%BF%E5%BA%9C</t>
@@ -677,13 +677,13 @@
     <t>https://zh.wikipedia.org/wiki/%E8%B2%BF%E6%98%93</t>
   </si>
   <si>
-    <t>貿易</t>
+    <t>贸易</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%B6%93%E6%BF%9F%E6%88%90%E9%95%B7</t>
   </si>
   <si>
-    <t>經濟成長</t>
+    <t>经济成长</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%97%85%E8%A1%8C</t>
@@ -713,7 +713,7 @@
     <t>https://zh.wikipedia.org/wiki/%E9%81%8B%E8%BC%B8%E5%B7%A5%E7%A8%8B</t>
   </si>
   <si>
-    <t>運輸工程</t>
+    <t>运输工程</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%9C%9F%E6%9C%A8%E5%B7%A5%E7%A8%8B</t>
@@ -767,7 +767,7 @@
     <t>https://zh.wikipedia.org/wiki/%E5%85%AC%E5%9C%B0%E6%82%B2%E5%8A%87</t>
   </si>
   <si>
-    <t>公地悲劇</t>
+    <t>公地悲剧</t>
   </si>
   <si>
     <t>https://en.wikipedia.org/wiki/land_use</t>
@@ -779,7 +779,7 @@
     <t>https://zh.wikipedia.org/wiki/%E8%81%9A%E9%9B%86%E7%B6%93%E6%BF%9F%E6%95%88%E6%87%89</t>
   </si>
   <si>
-    <t>聚集經濟效應</t>
+    <t>聚集经济效应</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E8%83%BD%E6%BA%90</t>
@@ -797,15 +797,12 @@
     <t>https://zh.wikipedia.org/wiki/%E6%87%B8%E6%B5%AE%E7%B2%92%E5%AD%90</t>
   </si>
   <si>
-    <t>懸浮粒子</t>
+    <t>悬浮粒子</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%A9%BA%E6%B0%A3%E6%B1%A1%E6%9F%93</t>
   </si>
   <si>
-    <t>空氣污染</t>
-  </si>
-  <si>
     <t>https://zh.wikipedia.org/wiki/%E4%BA%8C%E6%B0%A7%E5%8C%96%E7%A2%B3</t>
   </si>
   <si>
@@ -821,13 +818,13 @@
     <t>https://zh.wikipedia.org/wiki/%E7%92%B0%E5%A2%83%E6%B3%95%E8%A6%8F</t>
   </si>
   <si>
-    <t>環境法規</t>
+    <t>环境法规</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E9%9B%BB%E5%8B%95%E8%BB%8A%E8%BC%9B</t>
   </si>
   <si>
-    <t>電動車輛</t>
+    <t>电动车辆</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E8%83%BD%E6%BA%90%E6%95%88%E7%8E%87</t>
@@ -863,7 +860,7 @@
     <t>https://zh.wikipedia.org/wiki/%E8%BE%B2%E6%A5%AD</t>
   </si>
   <si>
-    <t>農業</t>
+    <t>农业</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%86%9C%E4%B8%9A%E5%B7%A5%E7%A8%8B</t>
@@ -875,7 +872,7 @@
     <t>https://zh.wikipedia.org/wiki/%E6%B0%B4%E7%94%A2%E9%A4%8A%E6%AE%96</t>
   </si>
   <si>
-    <t>水產養殖</t>
+    <t>水产养殖</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%B0%B4%E4%BA%A7%E5%AD%A6</t>
@@ -887,7 +884,7 @@
     <t>https://zh.wikipedia.org/wiki/%E9%A3%9F%E5%93%81%E5%8C%96%E5%AD%B8</t>
   </si>
   <si>
-    <t>食品化學</t>
+    <t>食品化学</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E9%A3%9F%E5%93%81%E5%B7%A5%E7%A8%8B</t>
@@ -953,13 +950,13 @@
     <t>https://zh.wikipedia.org/wiki/%E5%81%A5%E5%BA%B7%E7%A7%91%E5%AD%B8</t>
   </si>
   <si>
-    <t>健康科學</t>
+    <t>健康科学</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%94%9F%E5%8C%96%E6%AA%A2%E9%A9%97</t>
   </si>
   <si>
-    <t>生化檢驗</t>
+    <t>生化检验</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E8%8D%AF%E7%90%86%E5%AD%A6</t>
@@ -1013,7 +1010,7 @@
     <t>https://zh.wikipedia.org/wiki/%E5%BB%BA%E7%AF%89</t>
   </si>
   <si>
-    <t>建築</t>
+    <t>建筑</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%B0%B4%E5%88%A9%E5%B7%A5%E7%A8%8B</t>
@@ -1049,7 +1046,7 @@
     <t>https://zh.wikipedia.org/wiki/%E7%B5%90%E6%A7%8B%E5%B7%A5%E7%A8%8B</t>
   </si>
   <si>
-    <t>結構工程</t>
+    <t>结构工程</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%95%99%E8%82%B2%E6%8A%80%E6%9C%AF</t>
@@ -1115,31 +1112,31 @@
     <t>https://zh.wikipedia.org/wiki/%E5%BD%88%E8%97%A5</t>
   </si>
   <si>
-    <t>彈藥</t>
+    <t>弹药</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%82%B8%E5%BD%88</t>
   </si>
   <si>
-    <t>炸彈</t>
+    <t>炸弹</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E8%BB%8D%E4%BA%8B%E6%8A%80%E8%A1%93</t>
   </si>
   <si>
-    <t>軍事技術</t>
+    <t>军事技术</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E9%9B%BB%E5%AD%90%E4%BD%9C%E6%88%B0</t>
   </si>
   <si>
-    <t>電子作戰</t>
+    <t>电子作战</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E4%BD%8E%E5%8F%AF%E5%81%B5%E6%B8%AC%E6%80%A7%E6%8A%80%E8%A1%93</t>
   </si>
   <si>
-    <t>低可偵測性技術</t>
+    <t>低可侦测性技术</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%B7%A5%E5%85%B5</t>
@@ -1169,7 +1166,7 @@
     <t>https://zh.wikipedia.org/wiki/%E8%A8%88%E7%AE%97%E6%A9%9F%E5%B7%A5%E7%A8%8B</t>
   </si>
   <si>
-    <t>計算機工程</t>
+    <t>计算机工程</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E8%AE%A1%E7%AE%97%E6%9C%BA%E7%A7%91%E5%AD%A6</t>
@@ -1211,7 +1208,7 @@
     <t>https://zh.wikipedia.org/wiki/%E8%BB%9F%E4%BB%B6%E5%B7%A5%E7%A8%8B</t>
   </si>
   <si>
-    <t>軟件工程</t>
+    <t>软件工程</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E9%9F%B3%E4%B9%90%E6%8A%80%E6%9C%AF</t>
@@ -1307,7 +1304,7 @@
     <t>https://zh.wikipedia.org/wiki/%E9%9B%BB%E6%A9%9F%E5%B7%A5%E7%A8%8B%E5%AD%B8</t>
   </si>
   <si>
-    <t>電機工程學</t>
+    <t>电机工程学</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%94%B5%E5%AD%90%E5%B7%A5%E7%A8%8B</t>
@@ -1319,7 +1316,7 @@
     <t>https://zh.wikipedia.org/wiki/%E5%B7%A5%E7%A8%8B%E6%8A%80%E8%A1%93</t>
   </si>
   <si>
-    <t>工程技術</t>
+    <t>工程技术</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%B7%A5%E7%A8%8B%E5%AD%A6</t>
@@ -1397,7 +1394,7 @@
     <t>https://zh.wikipedia.org/wiki/%E8%A3%BD%E9%80%A0</t>
   </si>
   <si>
-    <t>製造</t>
+    <t>制造</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%9C%BA%E6%A2%B0</t>
@@ -1463,13 +1460,13 @@
     <t>https://zh.wikipedia.org/wiki/%E7%92%B0%E5%A2%83%E7%A7%91%E6%8A%80</t>
   </si>
   <si>
-    <t>環境科技</t>
+    <t>环境科技</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%B6%A0%E8%89%B2%E5%BB%BA%E7%AF%89</t>
   </si>
   <si>
-    <t>綠色建築</t>
+    <t>绿色建筑</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%8F%AF%E5%86%8D%E7%94%9F%E8%83%BD%E6%BA%90</t>
@@ -1481,7 +1478,7 @@
     <t>https://zh.wikipedia.org/wiki/%E6%B0%B8%E7%BA%8C%E8%A8%AD%E8%A8%88</t>
   </si>
   <si>
-    <t>永續設計</t>
+    <t>永续设计</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%8E%AF%E5%A2%83%E5%B7%A5%E7%A8%8B</t>
@@ -1493,7 +1490,7 @@
     <t>https://zh.wikipedia.org/wiki/%E7%94%9F%E6%85%8B%E5%B7%A5%E7%A8%8B</t>
   </si>
   <si>
-    <t>生態工程</t>
+    <t>生态工程</t>
   </si>
   <si>
     <t>https://en.wikipedia.org/wiki/Clean_technology</t>
@@ -1517,7 +1514,7 @@
     <t>https://zh.wikipedia.org/wiki/%E6%87%89%E7%94%A8%E7%A7%91%E5%AD%B8</t>
   </si>
   <si>
-    <t>應用科學</t>
+    <t>应用科学</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E8%80%83%E5%8F%A4</t>
@@ -1559,7 +1556,7 @@
     <t>https://zh.wikipedia.org/wiki/%E5%BE%AE%E7%B3%BB%E7%B5%B1</t>
   </si>
   <si>
-    <t>微系統</t>
+    <t>微系统</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%BE%AE%E6%8A%80%E6%9C%AF</t>
@@ -1595,13 +1592,10 @@
     <t>https://zh.wikipedia.org/wiki/%E5%9F%BA%E7%A4%8E%E8%A8%AD%E6%96%BD</t>
   </si>
   <si>
-    <t>基礎設施</t>
-  </si>
-  <si>
     <t>https://zh.wikipedia.org/wiki/%E7%99%BC%E6%98%8E</t>
   </si>
   <si>
-    <t>發明</t>
+    <t>发明</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%8F%91%E6%98%8E%E5%B9%B4%E8%A1%A8</t>
@@ -1613,15 +1607,12 @@
     <t>https://zh.wikipedia.org/wiki/%E7%9F%A5%E8%AD%98</t>
   </si>
   <si>
-    <t>知識</t>
+    <t>知识</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%A9%9F%E5%99%A8</t>
   </si>
   <si>
-    <t>機器</t>
-  </si>
-  <si>
     <t>https://zh.wikipedia.org/wiki/%E6%8A%80%E8%83%BD</t>
   </si>
   <si>
@@ -1655,7 +1646,7 @@
     <t>https://zh.wikipedia.org/wiki/%E5%B7%A5%E6%A5%AD%E9%9D%A9%E5%91%BD</t>
   </si>
   <si>
-    <t>工業革命</t>
+    <t>工业革命</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%AC%AC%E4%BA%8C%E6%AC%A1%E5%B7%A5%E4%B8%9A%E9%9D%A9%E5%91%BD</t>
@@ -1667,13 +1658,13 @@
     <t>https://zh.wikipedia.org/wiki/%E6%95%B8%E5%AD%97%E5%8C%96%E9%9D%A9%E5%91%BD</t>
   </si>
   <si>
-    <t>數字化革命</t>
+    <t>数字化革命</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%AC%AC%E4%B8%89%E6%AC%A1%E5%B7%A5%E6%A5%AD%E9%9D%A9%E5%91%BD</t>
   </si>
   <si>
-    <t>第三次工業革命</t>
+    <t>第三次工业革命</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E4%BF%A1%E6%81%AF%E6%97%B6%E4%BB%A3</t>
@@ -1727,7 +1718,7 @@
     <t>https://zh.wikipedia.org/wiki/%E7%A0%B4%E5%A3%9E%E6%80%A7%E5%89%B5%E6%96%B0</t>
   </si>
   <si>
-    <t>破壞性創新</t>
+    <t>破坏性创新</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E9%AB%98%E7%A7%91%E6%8A%80</t>
@@ -1757,7 +1748,7 @@
     <t>https://zh.wikipedia.org/wiki/%E6%8A%80%E8%A1%93%E5%AE%98%E5%83%9A</t>
   </si>
   <si>
-    <t>技術官僚</t>
+    <t>技术官僚</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%8A%80%E6%9C%AF%E5%A5%87%E5%BC%82%E7%82%B9</t>
@@ -1799,7 +1790,7 @@
     <t>https://zh.wikipedia.org/wiki/%E6%96%B0%E8%88%88%E6%8A%80%E8%A1%93%E5%88%97%E8%A1%A8</t>
   </si>
   <si>
-    <t>新興技術列表</t>
+    <t>新兴技术列表</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%8D%A1%E5%B0%94%E8%BE%BE%E8%82%96%E5%A4%AB%E6%8C%87%E6%95%B0</t>
@@ -1835,13 +1826,13 @@
     <t>https://zh.wikipedia.org/wiki/%E5%B0%8E%E5%90%91%E5%B7%B4%E5%A3%AB</t>
   </si>
   <si>
-    <t>導向巴士</t>
+    <t>导向巴士</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E9%96%8B%E8%93%AC%E5%B7%B4%E5%A3%AB</t>
   </si>
   <si>
-    <t>開蓬巴士</t>
+    <t>开蓬巴士</t>
   </si>
   <si>
     <t>https://en.wikipedia.org/wiki/Paratransit</t>
@@ -1865,19 +1856,19 @@
     <t>https://zh.wikipedia.org/wiki/%E9%81%8A%E8%A6%BD%E8%BB%8A</t>
   </si>
   <si>
-    <t>遊覽車</t>
+    <t>游览车</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E9%81%8E%E5%A2%83%E5%B7%B4%E5%A3%AB</t>
   </si>
   <si>
-    <t>過境巴士</t>
+    <t>过境巴士</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%84%A1%E8%BB%8C%E9%9B%BB%E8%BB%8A</t>
   </si>
   <si>
-    <t>無軌電車</t>
+    <t>无轨电车</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%BC%86%E7%B4%A2%E9%93%81%E8%B7%AF</t>
@@ -1889,13 +1880,13 @@
     <t>https://zh.wikipedia.org/wiki/%E5%8D%80%E5%9F%9F%E9%90%B5%E8%B7%AF</t>
   </si>
   <si>
-    <t>區域鐵路</t>
+    <t>区域铁路</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E9%87%8D%E5%9E%8B%E9%90%B5%E8%B7%AF</t>
   </si>
   <si>
-    <t>重型鐵路</t>
+    <t>重型铁路</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E8%A7%82%E5%85%89%E9%93%81%E8%B7%AF</t>
@@ -1907,13 +1898,10 @@
     <t>https://zh.wikipedia.org/wiki/%E9%AB%98%E9%80%9F%E9%90%B5%E8%B7%AF</t>
   </si>
   <si>
-    <t>高速鐵路</t>
-  </si>
-  <si>
     <t>https://zh.wikipedia.org/wiki/%E5%9F%8E%E9%9A%9B%E5%88%97%E8%BB%8A</t>
   </si>
   <si>
-    <t>城際列車</t>
+    <t>城际列车</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%B8%82%E5%9F%9F%E9%93%81%E8%B7%AF</t>
@@ -1925,49 +1913,49 @@
     <t>https://zh.wikipedia.org/wiki/%E8%BC%95%E8%BB%8C%E9%81%8B%E8%BC%B8</t>
   </si>
   <si>
-    <t>輕軌運輸</t>
+    <t>轻轨运输</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%A3%81%E6%B5%AE%E5%88%97%E8%BB%8A</t>
   </si>
   <si>
-    <t>磁浮列車</t>
+    <t>磁浮列车</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E4%B8%AD%E5%9E%8B%E9%90%B5%E8%B7%AF%E7%B3%BB%E7%B5%B1</t>
   </si>
   <si>
-    <t>中型鐵路系統</t>
+    <t>中型铁路系统</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%96%AE%E8%BB%8C%E9%90%B5%E8%B7%AF</t>
   </si>
   <si>
-    <t>單軌鐵路</t>
+    <t>单轨铁路</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%97%85%E5%AE%A2%E6%8D%B7%E9%81%8B%E7%B3%BB%E7%B5%B1</t>
   </si>
   <si>
-    <t>旅客捷運系統</t>
+    <t>旅客捷运系统</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%9F%8E%E5%B8%82%E8%BB%8C%E9%81%93%E4%BA%A4%E9%80%9A</t>
   </si>
   <si>
-    <t>城市軌道交通</t>
+    <t>城市轨道交通</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E8%86%A0%E8%BC%AA%E8%B7%AF%E8%BB%8C%E7%B3%BB%E7%B5%B1</t>
   </si>
   <si>
-    <t>膠輪路軌系統</t>
+    <t>胶轮路轨系统</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%9C%89%E8%BB%8C%E9%9B%BB%E8%BB%8A</t>
   </si>
   <si>
-    <t>有軌電車</t>
+    <t>有轨电车</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/Tram-train</t>
@@ -1991,7 +1979,7 @@
     <t>https://zh.wikipedia.org/wiki/%E5%85%AC%E5%85%B1%E8%87%AA%E8%A1%8C%E8%BB%8A</t>
   </si>
   <si>
-    <t>公共自行車</t>
+    <t>公共自行车</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%B1%BD%E8%BD%A6%E5%85%B1%E4%BA%AB</t>
@@ -2003,7 +1991,7 @@
     <t>https://zh.wikipedia.org/wiki/%E4%BA%BA%E5%8A%9B%E8%BB%8A</t>
   </si>
   <si>
-    <t>人力車</t>
+    <t>人力车</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E4%BA%BA%E5%8A%9B%E4%B8%89%E8%BD%AE%E8%BD%A6</t>
@@ -2015,25 +2003,25 @@
     <t>https://zh.wikipedia.org/wiki/%E9%A6%AC%E8%BB%8A</t>
   </si>
   <si>
-    <t>馬車</t>
+    <t>马车</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%90%88%E4%B9%98%E8%A8%88%E7%A8%8B%E8%BB%8A</t>
   </si>
   <si>
-    <t>合乘計程車</t>
+    <t>合乘计程车</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E8%A8%88%E7%A8%8B%E8%BB%8A</t>
   </si>
   <si>
-    <t>計程車</t>
+    <t>计程车</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E9%84%89%E6%9D%91%E8%BB%8A</t>
   </si>
   <si>
-    <t>鄉村車</t>
+    <t>乡村车</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%8B%BC%E8%BD%A6</t>
@@ -2051,25 +2039,22 @@
     <t>https://zh.wikipedia.org/wiki/%E8%88%B9%E9%81%8B</t>
   </si>
   <si>
-    <t>船運</t>
-  </si>
-  <si>
     <t>https://zh.wikipedia.org/wiki/%E6%A9%AB%E6%B0%B4%E6%B8%A1</t>
   </si>
   <si>
-    <t>橫水渡</t>
+    <t>横水渡</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%B8%A1%E8%BC%AA</t>
   </si>
   <si>
-    <t>渡輪</t>
+    <t>渡轮</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%B0%A3%E5%A2%8A%E8%88%B9</t>
   </si>
   <si>
-    <t>氣墊船</t>
+    <t>气垫船</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%B0%B4%E7%BF%BC%E8%88%B9</t>
@@ -2081,7 +2066,7 @@
     <t>https://zh.wikipedia.org/wiki/%E9%81%A0%E6%B4%8B%E9%83%B5%E8%BC%AA</t>
   </si>
   <si>
-    <t>遠洋郵輪</t>
+    <t>远洋邮轮</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%B0%B4%E4%B8%8A%E7%9A%84%E5%A3%AB</t>
@@ -2099,7 +2084,7 @@
     <t>https://zh.wikipedia.org/wiki/%E6%B0%91%E8%88%AA%E9%A3%9B%E6%A9%9F</t>
   </si>
   <si>
-    <t>民航飛機</t>
+    <t>民航飞机</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%94%B5%E6%A2%AF</t>
@@ -2111,9 +2096,6 @@
     <t>https://zh.wikipedia.org/wiki/%E7%94%B5%E5%8A%A8%E6%89%B6%E6%A2%AF</t>
   </si>
   <si>
-    <t>电动扶梯</t>
-  </si>
-  <si>
     <t>https://zh.wikipedia.org/wiki/%E6%97%85%E6%B8%B8</t>
   </si>
   <si>
@@ -2123,13 +2105,13 @@
     <t>https://zh.wikipedia.org/wiki/%E7%94%9F%E6%85%8B%E6%97%85%E9%81%8A</t>
   </si>
   <si>
-    <t>生態旅遊</t>
+    <t>生态旅游</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%95%A2%E6%A5%AD%E6%97%85%E9%81%8A</t>
   </si>
   <si>
-    <t>畢業旅遊</t>
+    <t>毕业旅游</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E8%9C%9C%E6%9C%88%E6%97%85%E6%B8%B8</t>
@@ -2141,13 +2123,13 @@
     <t>https://zh.wikipedia.org/wiki/%E6%80%A7%E6%97%85%E9%81%8A</t>
   </si>
   <si>
-    <t>性旅遊</t>
+    <t>性旅游</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E9%86%AB%E7%99%82%E6%97%85%E9%81%8A</t>
   </si>
   <si>
-    <t>醫療旅遊</t>
+    <t>医疗旅游</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E4%BC%9A%E8%AE%AE%E6%97%85%E6%B8%B8</t>
@@ -2159,25 +2141,25 @@
     <t>https://zh.wikipedia.org/wiki/%E5%95%86%E5%8B%99%E6%97%85%E9%81%8A</t>
   </si>
   <si>
-    <t>商務旅遊</t>
+    <t>商务旅游</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%9C%9D%E8%81%96</t>
   </si>
   <si>
-    <t>朝聖</t>
+    <t>朝圣</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E4%BA%92%E5%8A%A9%E6%97%85%E9%81%8A</t>
   </si>
   <si>
-    <t>互助旅遊</t>
+    <t>互助旅游</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%9C%98%E9%AB%94%E6%97%85%E9%81%8A</t>
   </si>
   <si>
-    <t>團體旅遊</t>
+    <t>团体旅游</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E8%87%AA%E5%8A%A9%E6%97%85%E6%B8%B8</t>
@@ -2189,13 +2171,13 @@
     <t>https://zh.wikipedia.org/wiki/%E5%8D%8A%E8%87%AA%E5%8A%A9%E6%97%85%E9%81%8A</t>
   </si>
   <si>
-    <t>半自助旅遊</t>
+    <t>半自助旅游</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%8B%A9%E7%8D%B5%E6%97%85%E8%A1%8C</t>
   </si>
   <si>
-    <t>狩獵旅行</t>
+    <t>狩猎旅行</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E4%BF%AE%E4%B8%9A%E6%97%85%E8%A1%8C</t>
@@ -2237,7 +2219,7 @@
     <t>https://zh.wikipedia.org/wiki/%E5%A3%AF%E9%81%8A</t>
   </si>
   <si>
-    <t>壯遊</t>
+    <t>壮游</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%BA%A2%E8%89%B2%E6%97%85%E6%B8%B8</t>
@@ -2249,13 +2231,10 @@
     <t>https://zh.wikipedia.org/wiki/%E8%87%AA%E5%8A%A9%E6%97%85%E9%81%8A</t>
   </si>
   <si>
-    <t>自助旅遊</t>
-  </si>
-  <si>
     <t>https://zh.wikipedia.org/wiki/%E5%AD%B8%E6%A0%A1%E6%97%85%E8%A1%8C</t>
   </si>
   <si>
-    <t>學校旅行</t>
+    <t>学校旅行</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%AC%BE%E5%BE%85</t>
@@ -2273,13 +2252,13 @@
     <t>https://zh.wikipedia.org/wiki/%E5%B0%8E%E9%81%8A</t>
   </si>
   <si>
-    <t>導遊</t>
+    <t>导游</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%8E%A5%E5%BE%85%E5%93%A1</t>
   </si>
   <si>
-    <t>接待員</t>
+    <t>接待员</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E9%85%92%E5%BA%97%E7%AE%A1%E7%90%86%E5%AD%A6</t>
@@ -2309,7 +2288,7 @@
     <t>https://zh.wikipedia.org/wiki/%E6%B1%BD%E8%BB%8A%E6%97%85%E9%A4%A8</t>
   </si>
   <si>
-    <t>汽車旅館</t>
+    <t>汽车旅馆</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%BA%A6%E5%81%87%E6%9D%91</t>
@@ -2333,13 +2312,13 @@
     <t>https://zh.wikipedia.org/wiki/%E8%AD%B7%E7%85%A7</t>
   </si>
   <si>
-    <t>護照</t>
+    <t>护照</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%B0%BD%E8%AD%89</t>
   </si>
   <si>
-    <t>簽證</t>
+    <t>签证</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%97%85%E8%A1%8C%E6%96%87%E5%AD%A6</t>
@@ -2381,7 +2360,7 @@
     <t>https://zh.wikipedia.org/wiki/%E6%97%85%E9%81%8A%E9%86%AB%E5%AD%B8</t>
   </si>
   <si>
-    <t>旅遊醫學</t>
+    <t>旅游医学</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E4%B8%96%E7%95%8C%E6%97%85%E6%B8%B8%E7%BB%84%E7%BB%87</t>
@@ -6563,7 +6542,7 @@
         <v>261</v>
       </c>
       <c r="F132" t="s">
-        <v>262</v>
+        <v>144</v>
       </c>
       <c r="G132" t="n">
         <v>1</v>
@@ -6589,10 +6568,10 @@
         <v>132</v>
       </c>
       <c r="E133" t="s">
+        <v>262</v>
+      </c>
+      <c r="F133" t="s">
         <v>263</v>
-      </c>
-      <c r="F133" t="s">
-        <v>264</v>
       </c>
       <c r="G133" t="n">
         <v>1</v>
@@ -6618,10 +6597,10 @@
         <v>133</v>
       </c>
       <c r="E134" t="s">
+        <v>264</v>
+      </c>
+      <c r="F134" t="s">
         <v>265</v>
-      </c>
-      <c r="F134" t="s">
-        <v>266</v>
       </c>
       <c r="G134" t="n">
         <v>2</v>
@@ -6647,10 +6626,10 @@
         <v>134</v>
       </c>
       <c r="E135" t="s">
+        <v>266</v>
+      </c>
+      <c r="F135" t="s">
         <v>267</v>
-      </c>
-      <c r="F135" t="s">
-        <v>268</v>
       </c>
       <c r="G135" t="n">
         <v>1</v>
@@ -6705,10 +6684,10 @@
         <v>136</v>
       </c>
       <c r="E137" t="s">
+        <v>268</v>
+      </c>
+      <c r="F137" t="s">
         <v>269</v>
-      </c>
-      <c r="F137" t="s">
-        <v>270</v>
       </c>
       <c r="G137" t="n">
         <v>1</v>
@@ -6734,10 +6713,10 @@
         <v>137</v>
       </c>
       <c r="E138" t="s">
+        <v>270</v>
+      </c>
+      <c r="F138" t="s">
         <v>271</v>
-      </c>
-      <c r="F138" t="s">
-        <v>272</v>
       </c>
       <c r="G138" t="n">
         <v>1</v>
@@ -6763,10 +6742,10 @@
         <v>138</v>
       </c>
       <c r="E139" t="s">
+        <v>272</v>
+      </c>
+      <c r="F139" t="s">
         <v>273</v>
-      </c>
-      <c r="F139" t="s">
-        <v>274</v>
       </c>
       <c r="G139" t="n">
         <v>2</v>
@@ -6792,10 +6771,10 @@
         <v>139</v>
       </c>
       <c r="E140" t="s">
+        <v>274</v>
+      </c>
+      <c r="F140" t="s">
         <v>275</v>
-      </c>
-      <c r="F140" t="s">
-        <v>276</v>
       </c>
       <c r="G140" t="n">
         <v>1</v>
@@ -6821,10 +6800,10 @@
         <v>140</v>
       </c>
       <c r="E141" t="s">
+        <v>276</v>
+      </c>
+      <c r="F141" t="s">
         <v>277</v>
-      </c>
-      <c r="F141" t="s">
-        <v>278</v>
       </c>
       <c r="G141" t="n">
         <v>6</v>
@@ -6850,10 +6829,10 @@
         <v>141</v>
       </c>
       <c r="E142" t="s">
+        <v>278</v>
+      </c>
+      <c r="F142" t="s">
         <v>279</v>
-      </c>
-      <c r="F142" t="s">
-        <v>280</v>
       </c>
       <c r="G142" t="n">
         <v>27</v>
@@ -6879,10 +6858,10 @@
         <v>142</v>
       </c>
       <c r="E143" t="s">
+        <v>280</v>
+      </c>
+      <c r="F143" t="s">
         <v>281</v>
-      </c>
-      <c r="F143" t="s">
-        <v>282</v>
       </c>
       <c r="G143" t="n">
         <v>1</v>
@@ -6908,10 +6887,10 @@
         <v>143</v>
       </c>
       <c r="E144" t="s">
+        <v>282</v>
+      </c>
+      <c r="F144" t="s">
         <v>283</v>
-      </c>
-      <c r="F144" t="s">
-        <v>284</v>
       </c>
       <c r="G144" t="n">
         <v>1</v>
@@ -6937,10 +6916,10 @@
         <v>144</v>
       </c>
       <c r="E145" t="s">
+        <v>284</v>
+      </c>
+      <c r="F145" t="s">
         <v>285</v>
-      </c>
-      <c r="F145" t="s">
-        <v>286</v>
       </c>
       <c r="G145" t="n">
         <v>1</v>
@@ -6966,10 +6945,10 @@
         <v>145</v>
       </c>
       <c r="E146" t="s">
+        <v>286</v>
+      </c>
+      <c r="F146" t="s">
         <v>287</v>
-      </c>
-      <c r="F146" t="s">
-        <v>288</v>
       </c>
       <c r="G146" t="n">
         <v>1</v>
@@ -6995,10 +6974,10 @@
         <v>146</v>
       </c>
       <c r="E147" t="s">
+        <v>288</v>
+      </c>
+      <c r="F147" t="s">
         <v>289</v>
-      </c>
-      <c r="F147" t="s">
-        <v>290</v>
       </c>
       <c r="G147" t="n">
         <v>1</v>
@@ -7024,10 +7003,10 @@
         <v>147</v>
       </c>
       <c r="E148" t="s">
+        <v>290</v>
+      </c>
+      <c r="F148" t="s">
         <v>291</v>
-      </c>
-      <c r="F148" t="s">
-        <v>292</v>
       </c>
       <c r="G148" t="n">
         <v>1</v>
@@ -7053,10 +7032,10 @@
         <v>148</v>
       </c>
       <c r="E149" t="s">
+        <v>292</v>
+      </c>
+      <c r="F149" t="s">
         <v>293</v>
-      </c>
-      <c r="F149" t="s">
-        <v>294</v>
       </c>
       <c r="G149" t="n">
         <v>1</v>
@@ -7082,10 +7061,10 @@
         <v>149</v>
       </c>
       <c r="E150" t="s">
+        <v>294</v>
+      </c>
+      <c r="F150" t="s">
         <v>295</v>
-      </c>
-      <c r="F150" t="s">
-        <v>296</v>
       </c>
       <c r="G150" t="n">
         <v>1</v>
@@ -7111,10 +7090,10 @@
         <v>150</v>
       </c>
       <c r="E151" t="s">
+        <v>296</v>
+      </c>
+      <c r="F151" t="s">
         <v>297</v>
-      </c>
-      <c r="F151" t="s">
-        <v>298</v>
       </c>
       <c r="G151" t="n">
         <v>1</v>
@@ -7140,10 +7119,10 @@
         <v>151</v>
       </c>
       <c r="E152" t="s">
+        <v>298</v>
+      </c>
+      <c r="F152" t="s">
         <v>299</v>
-      </c>
-      <c r="F152" t="s">
-        <v>300</v>
       </c>
       <c r="G152" t="n">
         <v>1</v>
@@ -7169,10 +7148,10 @@
         <v>152</v>
       </c>
       <c r="E153" t="s">
+        <v>300</v>
+      </c>
+      <c r="F153" t="s">
         <v>301</v>
-      </c>
-      <c r="F153" t="s">
-        <v>302</v>
       </c>
       <c r="G153" t="n">
         <v>1</v>
@@ -7198,10 +7177,10 @@
         <v>153</v>
       </c>
       <c r="E154" t="s">
+        <v>302</v>
+      </c>
+      <c r="F154" t="s">
         <v>303</v>
-      </c>
-      <c r="F154" t="s">
-        <v>304</v>
       </c>
       <c r="G154" t="n">
         <v>1</v>
@@ -7227,10 +7206,10 @@
         <v>154</v>
       </c>
       <c r="E155" t="s">
+        <v>304</v>
+      </c>
+      <c r="F155" t="s">
         <v>305</v>
-      </c>
-      <c r="F155" t="s">
-        <v>306</v>
       </c>
       <c r="G155" t="n">
         <v>1</v>
@@ -7256,10 +7235,10 @@
         <v>155</v>
       </c>
       <c r="E156" t="s">
+        <v>306</v>
+      </c>
+      <c r="F156" t="s">
         <v>307</v>
-      </c>
-      <c r="F156" t="s">
-        <v>308</v>
       </c>
       <c r="G156" t="n">
         <v>1</v>
@@ -7285,10 +7264,10 @@
         <v>156</v>
       </c>
       <c r="E157" t="s">
+        <v>308</v>
+      </c>
+      <c r="F157" t="s">
         <v>309</v>
-      </c>
-      <c r="F157" t="s">
-        <v>310</v>
       </c>
       <c r="G157" t="n">
         <v>1</v>
@@ -7314,10 +7293,10 @@
         <v>157</v>
       </c>
       <c r="E158" t="s">
+        <v>310</v>
+      </c>
+      <c r="F158" t="s">
         <v>311</v>
-      </c>
-      <c r="F158" t="s">
-        <v>312</v>
       </c>
       <c r="G158" t="n">
         <v>1</v>
@@ -7343,10 +7322,10 @@
         <v>158</v>
       </c>
       <c r="E159" t="s">
+        <v>312</v>
+      </c>
+      <c r="F159" t="s">
         <v>313</v>
-      </c>
-      <c r="F159" t="s">
-        <v>314</v>
       </c>
       <c r="G159" t="n">
         <v>1</v>
@@ -7372,10 +7351,10 @@
         <v>159</v>
       </c>
       <c r="E160" t="s">
+        <v>314</v>
+      </c>
+      <c r="F160" t="s">
         <v>315</v>
-      </c>
-      <c r="F160" t="s">
-        <v>316</v>
       </c>
       <c r="G160" t="n">
         <v>1</v>
@@ -7401,10 +7380,10 @@
         <v>160</v>
       </c>
       <c r="E161" t="s">
+        <v>316</v>
+      </c>
+      <c r="F161" t="s">
         <v>317</v>
-      </c>
-      <c r="F161" t="s">
-        <v>318</v>
       </c>
       <c r="G161" t="n">
         <v>1</v>
@@ -7430,10 +7409,10 @@
         <v>161</v>
       </c>
       <c r="E162" t="s">
+        <v>318</v>
+      </c>
+      <c r="F162" t="s">
         <v>319</v>
-      </c>
-      <c r="F162" t="s">
-        <v>320</v>
       </c>
       <c r="G162" t="n">
         <v>1</v>
@@ -7459,10 +7438,10 @@
         <v>162</v>
       </c>
       <c r="E163" t="s">
+        <v>320</v>
+      </c>
+      <c r="F163" t="s">
         <v>321</v>
-      </c>
-      <c r="F163" t="s">
-        <v>322</v>
       </c>
       <c r="G163" t="n">
         <v>1</v>
@@ -7488,10 +7467,10 @@
         <v>163</v>
       </c>
       <c r="E164" t="s">
+        <v>322</v>
+      </c>
+      <c r="F164" t="s">
         <v>323</v>
-      </c>
-      <c r="F164" t="s">
-        <v>324</v>
       </c>
       <c r="G164" t="n">
         <v>1</v>
@@ -7517,10 +7496,10 @@
         <v>164</v>
       </c>
       <c r="E165" t="s">
+        <v>324</v>
+      </c>
+      <c r="F165" t="s">
         <v>325</v>
-      </c>
-      <c r="F165" t="s">
-        <v>326</v>
       </c>
       <c r="G165" t="n">
         <v>1</v>
@@ -7546,10 +7525,10 @@
         <v>165</v>
       </c>
       <c r="E166" t="s">
+        <v>326</v>
+      </c>
+      <c r="F166" t="s">
         <v>327</v>
-      </c>
-      <c r="F166" t="s">
-        <v>328</v>
       </c>
       <c r="G166" t="n">
         <v>2</v>
@@ -7575,10 +7554,10 @@
         <v>166</v>
       </c>
       <c r="E167" t="s">
+        <v>328</v>
+      </c>
+      <c r="F167" t="s">
         <v>329</v>
-      </c>
-      <c r="F167" t="s">
-        <v>330</v>
       </c>
       <c r="G167" t="n">
         <v>3</v>
@@ -7604,10 +7583,10 @@
         <v>167</v>
       </c>
       <c r="E168" t="s">
+        <v>330</v>
+      </c>
+      <c r="F168" t="s">
         <v>331</v>
-      </c>
-      <c r="F168" t="s">
-        <v>332</v>
       </c>
       <c r="G168" t="n">
         <v>4</v>
@@ -7633,10 +7612,10 @@
         <v>168</v>
       </c>
       <c r="E169" t="s">
+        <v>332</v>
+      </c>
+      <c r="F169" t="s">
         <v>333</v>
-      </c>
-      <c r="F169" t="s">
-        <v>334</v>
       </c>
       <c r="G169" t="n">
         <v>1</v>
@@ -7662,10 +7641,10 @@
         <v>169</v>
       </c>
       <c r="E170" t="s">
+        <v>334</v>
+      </c>
+      <c r="F170" t="s">
         <v>335</v>
-      </c>
-      <c r="F170" t="s">
-        <v>336</v>
       </c>
       <c r="G170" t="n">
         <v>1</v>
@@ -7691,10 +7670,10 @@
         <v>170</v>
       </c>
       <c r="E171" t="s">
+        <v>336</v>
+      </c>
+      <c r="F171" t="s">
         <v>337</v>
-      </c>
-      <c r="F171" t="s">
-        <v>338</v>
       </c>
       <c r="G171" t="n">
         <v>1</v>
@@ -7720,10 +7699,10 @@
         <v>171</v>
       </c>
       <c r="E172" t="s">
+        <v>338</v>
+      </c>
+      <c r="F172" t="s">
         <v>339</v>
-      </c>
-      <c r="F172" t="s">
-        <v>340</v>
       </c>
       <c r="G172" t="n">
         <v>1</v>
@@ -7749,10 +7728,10 @@
         <v>172</v>
       </c>
       <c r="E173" t="s">
+        <v>340</v>
+      </c>
+      <c r="F173" t="s">
         <v>341</v>
-      </c>
-      <c r="F173" t="s">
-        <v>342</v>
       </c>
       <c r="G173" t="n">
         <v>1</v>
@@ -7778,10 +7757,10 @@
         <v>173</v>
       </c>
       <c r="E174" t="s">
+        <v>342</v>
+      </c>
+      <c r="F174" t="s">
         <v>343</v>
-      </c>
-      <c r="F174" t="s">
-        <v>344</v>
       </c>
       <c r="G174" t="n">
         <v>1</v>
@@ -7807,10 +7786,10 @@
         <v>174</v>
       </c>
       <c r="E175" t="s">
+        <v>344</v>
+      </c>
+      <c r="F175" t="s">
         <v>345</v>
-      </c>
-      <c r="F175" t="s">
-        <v>346</v>
       </c>
       <c r="G175" t="n">
         <v>2</v>
@@ -7836,10 +7815,10 @@
         <v>175</v>
       </c>
       <c r="E176" t="s">
+        <v>346</v>
+      </c>
+      <c r="F176" t="s">
         <v>347</v>
-      </c>
-      <c r="F176" t="s">
-        <v>348</v>
       </c>
       <c r="G176" t="n">
         <v>1</v>
@@ -7865,10 +7844,10 @@
         <v>176</v>
       </c>
       <c r="E177" t="s">
+        <v>348</v>
+      </c>
+      <c r="F177" t="s">
         <v>349</v>
-      </c>
-      <c r="F177" t="s">
-        <v>350</v>
       </c>
       <c r="G177" t="n">
         <v>1</v>
@@ -7894,10 +7873,10 @@
         <v>177</v>
       </c>
       <c r="E178" t="s">
+        <v>350</v>
+      </c>
+      <c r="F178" t="s">
         <v>351</v>
-      </c>
-      <c r="F178" t="s">
-        <v>352</v>
       </c>
       <c r="G178" t="n">
         <v>1</v>
@@ -7923,10 +7902,10 @@
         <v>178</v>
       </c>
       <c r="E179" t="s">
+        <v>352</v>
+      </c>
+      <c r="F179" t="s">
         <v>353</v>
-      </c>
-      <c r="F179" t="s">
-        <v>354</v>
       </c>
       <c r="G179" t="n">
         <v>1</v>
@@ -7952,10 +7931,10 @@
         <v>179</v>
       </c>
       <c r="E180" t="s">
+        <v>354</v>
+      </c>
+      <c r="F180" t="s">
         <v>355</v>
-      </c>
-      <c r="F180" t="s">
-        <v>356</v>
       </c>
       <c r="G180" t="n">
         <v>1</v>
@@ -7981,10 +7960,10 @@
         <v>180</v>
       </c>
       <c r="E181" t="s">
+        <v>356</v>
+      </c>
+      <c r="F181" t="s">
         <v>357</v>
-      </c>
-      <c r="F181" t="s">
-        <v>358</v>
       </c>
       <c r="G181" t="n">
         <v>1</v>
@@ -8010,10 +7989,10 @@
         <v>181</v>
       </c>
       <c r="E182" t="s">
+        <v>358</v>
+      </c>
+      <c r="F182" t="s">
         <v>359</v>
-      </c>
-      <c r="F182" t="s">
-        <v>360</v>
       </c>
       <c r="G182" t="n">
         <v>1</v>
@@ -8039,10 +8018,10 @@
         <v>182</v>
       </c>
       <c r="E183" t="s">
+        <v>360</v>
+      </c>
+      <c r="F183" t="s">
         <v>361</v>
-      </c>
-      <c r="F183" t="s">
-        <v>362</v>
       </c>
       <c r="G183" t="n">
         <v>1</v>
@@ -8068,10 +8047,10 @@
         <v>183</v>
       </c>
       <c r="E184" t="s">
+        <v>362</v>
+      </c>
+      <c r="F184" t="s">
         <v>363</v>
-      </c>
-      <c r="F184" t="s">
-        <v>364</v>
       </c>
       <c r="G184" t="n">
         <v>2</v>
@@ -8097,10 +8076,10 @@
         <v>184</v>
       </c>
       <c r="E185" t="s">
+        <v>364</v>
+      </c>
+      <c r="F185" t="s">
         <v>365</v>
-      </c>
-      <c r="F185" t="s">
-        <v>366</v>
       </c>
       <c r="G185" t="n">
         <v>1</v>
@@ -8126,10 +8105,10 @@
         <v>185</v>
       </c>
       <c r="E186" t="s">
+        <v>366</v>
+      </c>
+      <c r="F186" t="s">
         <v>367</v>
-      </c>
-      <c r="F186" t="s">
-        <v>368</v>
       </c>
       <c r="G186" t="n">
         <v>1</v>
@@ -8155,10 +8134,10 @@
         <v>186</v>
       </c>
       <c r="E187" t="s">
+        <v>368</v>
+      </c>
+      <c r="F187" t="s">
         <v>369</v>
-      </c>
-      <c r="F187" t="s">
-        <v>370</v>
       </c>
       <c r="G187" t="n">
         <v>1</v>
@@ -8184,10 +8163,10 @@
         <v>187</v>
       </c>
       <c r="E188" t="s">
+        <v>370</v>
+      </c>
+      <c r="F188" t="s">
         <v>371</v>
-      </c>
-      <c r="F188" t="s">
-        <v>372</v>
       </c>
       <c r="G188" t="n">
         <v>1</v>
@@ -8213,10 +8192,10 @@
         <v>188</v>
       </c>
       <c r="E189" t="s">
+        <v>372</v>
+      </c>
+      <c r="F189" t="s">
         <v>373</v>
-      </c>
-      <c r="F189" t="s">
-        <v>374</v>
       </c>
       <c r="G189" t="n">
         <v>1</v>
@@ -8242,10 +8221,10 @@
         <v>189</v>
       </c>
       <c r="E190" t="s">
+        <v>374</v>
+      </c>
+      <c r="F190" t="s">
         <v>375</v>
-      </c>
-      <c r="F190" t="s">
-        <v>376</v>
       </c>
       <c r="G190" t="n">
         <v>1</v>
@@ -8271,10 +8250,10 @@
         <v>190</v>
       </c>
       <c r="E191" t="s">
+        <v>376</v>
+      </c>
+      <c r="F191" t="s">
         <v>377</v>
-      </c>
-      <c r="F191" t="s">
-        <v>378</v>
       </c>
       <c r="G191" t="n">
         <v>1</v>
@@ -8300,10 +8279,10 @@
         <v>191</v>
       </c>
       <c r="E192" t="s">
+        <v>378</v>
+      </c>
+      <c r="F192" t="s">
         <v>379</v>
-      </c>
-      <c r="F192" t="s">
-        <v>380</v>
       </c>
       <c r="G192" t="n">
         <v>7</v>
@@ -8329,10 +8308,10 @@
         <v>192</v>
       </c>
       <c r="E193" t="s">
+        <v>380</v>
+      </c>
+      <c r="F193" t="s">
         <v>381</v>
-      </c>
-      <c r="F193" t="s">
-        <v>382</v>
       </c>
       <c r="G193" t="n">
         <v>1</v>
@@ -8358,10 +8337,10 @@
         <v>193</v>
       </c>
       <c r="E194" t="s">
+        <v>382</v>
+      </c>
+      <c r="F194" t="s">
         <v>383</v>
-      </c>
-      <c r="F194" t="s">
-        <v>384</v>
       </c>
       <c r="G194" t="n">
         <v>1</v>
@@ -8387,10 +8366,10 @@
         <v>194</v>
       </c>
       <c r="E195" t="s">
+        <v>384</v>
+      </c>
+      <c r="F195" t="s">
         <v>385</v>
-      </c>
-      <c r="F195" t="s">
-        <v>386</v>
       </c>
       <c r="G195" t="n">
         <v>1</v>
@@ -8416,10 +8395,10 @@
         <v>195</v>
       </c>
       <c r="E196" t="s">
+        <v>386</v>
+      </c>
+      <c r="F196" t="s">
         <v>387</v>
-      </c>
-      <c r="F196" t="s">
-        <v>388</v>
       </c>
       <c r="G196" t="n">
         <v>1</v>
@@ -8445,10 +8424,10 @@
         <v>196</v>
       </c>
       <c r="E197" t="s">
+        <v>388</v>
+      </c>
+      <c r="F197" t="s">
         <v>389</v>
-      </c>
-      <c r="F197" t="s">
-        <v>390</v>
       </c>
       <c r="G197" t="n">
         <v>1</v>
@@ -8474,10 +8453,10 @@
         <v>197</v>
       </c>
       <c r="E198" t="s">
+        <v>390</v>
+      </c>
+      <c r="F198" t="s">
         <v>391</v>
-      </c>
-      <c r="F198" t="s">
-        <v>392</v>
       </c>
       <c r="G198" t="n">
         <v>3</v>
@@ -8503,10 +8482,10 @@
         <v>198</v>
       </c>
       <c r="E199" t="s">
+        <v>392</v>
+      </c>
+      <c r="F199" t="s">
         <v>393</v>
-      </c>
-      <c r="F199" t="s">
-        <v>394</v>
       </c>
       <c r="G199" t="n">
         <v>1</v>
@@ -8532,10 +8511,10 @@
         <v>199</v>
       </c>
       <c r="E200" t="s">
+        <v>394</v>
+      </c>
+      <c r="F200" t="s">
         <v>395</v>
-      </c>
-      <c r="F200" t="s">
-        <v>396</v>
       </c>
       <c r="G200" t="n">
         <v>1</v>
@@ -8561,10 +8540,10 @@
         <v>200</v>
       </c>
       <c r="E201" t="s">
+        <v>396</v>
+      </c>
+      <c r="F201" t="s">
         <v>397</v>
-      </c>
-      <c r="F201" t="s">
-        <v>398</v>
       </c>
       <c r="G201" t="n">
         <v>1</v>
@@ -8590,10 +8569,10 @@
         <v>201</v>
       </c>
       <c r="E202" t="s">
+        <v>398</v>
+      </c>
+      <c r="F202" t="s">
         <v>399</v>
-      </c>
-      <c r="F202" t="s">
-        <v>400</v>
       </c>
       <c r="G202" t="n">
         <v>2</v>
@@ -8619,10 +8598,10 @@
         <v>202</v>
       </c>
       <c r="E203" t="s">
+        <v>400</v>
+      </c>
+      <c r="F203" t="s">
         <v>401</v>
-      </c>
-      <c r="F203" t="s">
-        <v>402</v>
       </c>
       <c r="G203" t="n">
         <v>1</v>
@@ -8648,10 +8627,10 @@
         <v>203</v>
       </c>
       <c r="E204" t="s">
+        <v>402</v>
+      </c>
+      <c r="F204" t="s">
         <v>403</v>
-      </c>
-      <c r="F204" t="s">
-        <v>404</v>
       </c>
       <c r="G204" t="n">
         <v>1</v>
@@ -8677,10 +8656,10 @@
         <v>204</v>
       </c>
       <c r="E205" t="s">
+        <v>404</v>
+      </c>
+      <c r="F205" t="s">
         <v>405</v>
-      </c>
-      <c r="F205" t="s">
-        <v>406</v>
       </c>
       <c r="G205" t="n">
         <v>1</v>
@@ -8706,10 +8685,10 @@
         <v>205</v>
       </c>
       <c r="E206" t="s">
+        <v>406</v>
+      </c>
+      <c r="F206" t="s">
         <v>407</v>
-      </c>
-      <c r="F206" t="s">
-        <v>408</v>
       </c>
       <c r="G206" t="n">
         <v>1</v>
@@ -8735,10 +8714,10 @@
         <v>206</v>
       </c>
       <c r="E207" t="s">
+        <v>408</v>
+      </c>
+      <c r="F207" t="s">
         <v>409</v>
-      </c>
-      <c r="F207" t="s">
-        <v>410</v>
       </c>
       <c r="G207" t="n">
         <v>3</v>
@@ -8764,10 +8743,10 @@
         <v>207</v>
       </c>
       <c r="E208" t="s">
+        <v>410</v>
+      </c>
+      <c r="F208" t="s">
         <v>411</v>
-      </c>
-      <c r="F208" t="s">
-        <v>412</v>
       </c>
       <c r="G208" t="n">
         <v>1</v>
@@ -8793,10 +8772,10 @@
         <v>208</v>
       </c>
       <c r="E209" t="s">
+        <v>412</v>
+      </c>
+      <c r="F209" t="s">
         <v>413</v>
-      </c>
-      <c r="F209" t="s">
-        <v>414</v>
       </c>
       <c r="G209" t="n">
         <v>1</v>
@@ -8822,10 +8801,10 @@
         <v>209</v>
       </c>
       <c r="E210" t="s">
+        <v>414</v>
+      </c>
+      <c r="F210" t="s">
         <v>415</v>
-      </c>
-      <c r="F210" t="s">
-        <v>416</v>
       </c>
       <c r="G210" t="n">
         <v>1</v>
@@ -8851,10 +8830,10 @@
         <v>210</v>
       </c>
       <c r="E211" t="s">
+        <v>416</v>
+      </c>
+      <c r="F211" t="s">
         <v>417</v>
-      </c>
-      <c r="F211" t="s">
-        <v>418</v>
       </c>
       <c r="G211" t="n">
         <v>2</v>
@@ -8880,10 +8859,10 @@
         <v>211</v>
       </c>
       <c r="E212" t="s">
+        <v>418</v>
+      </c>
+      <c r="F212" t="s">
         <v>419</v>
-      </c>
-      <c r="F212" t="s">
-        <v>420</v>
       </c>
       <c r="G212" t="n">
         <v>1</v>
@@ -8909,10 +8888,10 @@
         <v>212</v>
       </c>
       <c r="E213" t="s">
+        <v>420</v>
+      </c>
+      <c r="F213" t="s">
         <v>421</v>
-      </c>
-      <c r="F213" t="s">
-        <v>422</v>
       </c>
       <c r="G213" t="n">
         <v>1</v>
@@ -8938,10 +8917,10 @@
         <v>213</v>
       </c>
       <c r="E214" t="s">
+        <v>422</v>
+      </c>
+      <c r="F214" t="s">
         <v>423</v>
-      </c>
-      <c r="F214" t="s">
-        <v>424</v>
       </c>
       <c r="G214" t="n">
         <v>1</v>
@@ -8967,10 +8946,10 @@
         <v>214</v>
       </c>
       <c r="E215" t="s">
+        <v>424</v>
+      </c>
+      <c r="F215" t="s">
         <v>425</v>
-      </c>
-      <c r="F215" t="s">
-        <v>426</v>
       </c>
       <c r="G215" t="n">
         <v>1</v>
@@ -8996,10 +8975,10 @@
         <v>215</v>
       </c>
       <c r="E216" t="s">
+        <v>426</v>
+      </c>
+      <c r="F216" t="s">
         <v>427</v>
-      </c>
-      <c r="F216" t="s">
-        <v>428</v>
       </c>
       <c r="G216" t="n">
         <v>1</v>
@@ -9025,10 +9004,10 @@
         <v>216</v>
       </c>
       <c r="E217" t="s">
+        <v>428</v>
+      </c>
+      <c r="F217" t="s">
         <v>429</v>
-      </c>
-      <c r="F217" t="s">
-        <v>430</v>
       </c>
       <c r="G217" t="n">
         <v>1</v>
@@ -9054,10 +9033,10 @@
         <v>217</v>
       </c>
       <c r="E218" t="s">
+        <v>430</v>
+      </c>
+      <c r="F218" t="s">
         <v>431</v>
-      </c>
-      <c r="F218" t="s">
-        <v>432</v>
       </c>
       <c r="G218" t="n">
         <v>1</v>
@@ -9083,10 +9062,10 @@
         <v>218</v>
       </c>
       <c r="E219" t="s">
+        <v>432</v>
+      </c>
+      <c r="F219" t="s">
         <v>433</v>
-      </c>
-      <c r="F219" t="s">
-        <v>434</v>
       </c>
       <c r="G219" t="n">
         <v>1</v>
@@ -9112,10 +9091,10 @@
         <v>219</v>
       </c>
       <c r="E220" t="s">
+        <v>434</v>
+      </c>
+      <c r="F220" t="s">
         <v>435</v>
-      </c>
-      <c r="F220" t="s">
-        <v>436</v>
       </c>
       <c r="G220" t="n">
         <v>5</v>
@@ -9141,10 +9120,10 @@
         <v>220</v>
       </c>
       <c r="E221" t="s">
+        <v>436</v>
+      </c>
+      <c r="F221" t="s">
         <v>437</v>
-      </c>
-      <c r="F221" t="s">
-        <v>438</v>
       </c>
       <c r="G221" t="n">
         <v>1</v>
@@ -9170,10 +9149,10 @@
         <v>221</v>
       </c>
       <c r="E222" t="s">
+        <v>438</v>
+      </c>
+      <c r="F222" t="s">
         <v>439</v>
-      </c>
-      <c r="F222" t="s">
-        <v>440</v>
       </c>
       <c r="G222" t="n">
         <v>1</v>
@@ -9199,10 +9178,10 @@
         <v>222</v>
       </c>
       <c r="E223" t="s">
+        <v>440</v>
+      </c>
+      <c r="F223" t="s">
         <v>441</v>
-      </c>
-      <c r="F223" t="s">
-        <v>442</v>
       </c>
       <c r="G223" t="n">
         <v>1</v>
@@ -9228,10 +9207,10 @@
         <v>223</v>
       </c>
       <c r="E224" t="s">
+        <v>442</v>
+      </c>
+      <c r="F224" t="s">
         <v>443</v>
-      </c>
-      <c r="F224" t="s">
-        <v>444</v>
       </c>
       <c r="G224" t="n">
         <v>1</v>
@@ -9257,10 +9236,10 @@
         <v>224</v>
       </c>
       <c r="E225" t="s">
+        <v>444</v>
+      </c>
+      <c r="F225" t="s">
         <v>445</v>
-      </c>
-      <c r="F225" t="s">
-        <v>446</v>
       </c>
       <c r="G225" t="n">
         <v>1</v>
@@ -9286,10 +9265,10 @@
         <v>225</v>
       </c>
       <c r="E226" t="s">
+        <v>446</v>
+      </c>
+      <c r="F226" t="s">
         <v>447</v>
-      </c>
-      <c r="F226" t="s">
-        <v>448</v>
       </c>
       <c r="G226" t="n">
         <v>1</v>
@@ -9315,10 +9294,10 @@
         <v>226</v>
       </c>
       <c r="E227" t="s">
+        <v>448</v>
+      </c>
+      <c r="F227" t="s">
         <v>449</v>
-      </c>
-      <c r="F227" t="s">
-        <v>450</v>
       </c>
       <c r="G227" t="n">
         <v>1</v>
@@ -9344,10 +9323,10 @@
         <v>227</v>
       </c>
       <c r="E228" t="s">
+        <v>450</v>
+      </c>
+      <c r="F228" t="s">
         <v>451</v>
-      </c>
-      <c r="F228" t="s">
-        <v>452</v>
       </c>
       <c r="G228" t="n">
         <v>1</v>
@@ -9373,10 +9352,10 @@
         <v>228</v>
       </c>
       <c r="E229" t="s">
+        <v>452</v>
+      </c>
+      <c r="F229" t="s">
         <v>453</v>
-      </c>
-      <c r="F229" t="s">
-        <v>454</v>
       </c>
       <c r="G229" t="n">
         <v>2</v>
@@ -9431,10 +9410,10 @@
         <v>230</v>
       </c>
       <c r="E231" t="s">
+        <v>454</v>
+      </c>
+      <c r="F231" t="s">
         <v>455</v>
-      </c>
-      <c r="F231" t="s">
-        <v>456</v>
       </c>
       <c r="G231" t="n">
         <v>1</v>
@@ -9460,10 +9439,10 @@
         <v>231</v>
       </c>
       <c r="E232" t="s">
+        <v>456</v>
+      </c>
+      <c r="F232" t="s">
         <v>457</v>
-      </c>
-      <c r="F232" t="s">
-        <v>458</v>
       </c>
       <c r="G232" t="n">
         <v>1</v>
@@ -9489,10 +9468,10 @@
         <v>232</v>
       </c>
       <c r="E233" t="s">
+        <v>458</v>
+      </c>
+      <c r="F233" t="s">
         <v>459</v>
-      </c>
-      <c r="F233" t="s">
-        <v>460</v>
       </c>
       <c r="G233" t="n">
         <v>1</v>
@@ -9518,10 +9497,10 @@
         <v>233</v>
       </c>
       <c r="E234" t="s">
+        <v>460</v>
+      </c>
+      <c r="F234" t="s">
         <v>461</v>
-      </c>
-      <c r="F234" t="s">
-        <v>462</v>
       </c>
       <c r="G234" t="n">
         <v>4</v>
@@ -9547,10 +9526,10 @@
         <v>234</v>
       </c>
       <c r="E235" t="s">
+        <v>462</v>
+      </c>
+      <c r="F235" t="s">
         <v>463</v>
-      </c>
-      <c r="F235" t="s">
-        <v>464</v>
       </c>
       <c r="G235" t="n">
         <v>1</v>
@@ -9576,10 +9555,10 @@
         <v>235</v>
       </c>
       <c r="E236" t="s">
+        <v>464</v>
+      </c>
+      <c r="F236" t="s">
         <v>465</v>
-      </c>
-      <c r="F236" t="s">
-        <v>466</v>
       </c>
       <c r="G236" t="n">
         <v>1</v>
@@ -9605,10 +9584,10 @@
         <v>236</v>
       </c>
       <c r="E237" t="s">
+        <v>466</v>
+      </c>
+      <c r="F237" t="s">
         <v>467</v>
-      </c>
-      <c r="F237" t="s">
-        <v>468</v>
       </c>
       <c r="G237" t="n">
         <v>1</v>
@@ -9634,10 +9613,10 @@
         <v>237</v>
       </c>
       <c r="E238" t="s">
+        <v>468</v>
+      </c>
+      <c r="F238" t="s">
         <v>469</v>
-      </c>
-      <c r="F238" t="s">
-        <v>470</v>
       </c>
       <c r="G238" t="n">
         <v>2</v>
@@ -9663,10 +9642,10 @@
         <v>238</v>
       </c>
       <c r="E239" t="s">
+        <v>470</v>
+      </c>
+      <c r="F239" t="s">
         <v>471</v>
-      </c>
-      <c r="F239" t="s">
-        <v>472</v>
       </c>
       <c r="G239" t="n">
         <v>1</v>
@@ -9692,10 +9671,10 @@
         <v>239</v>
       </c>
       <c r="E240" t="s">
+        <v>472</v>
+      </c>
+      <c r="F240" t="s">
         <v>473</v>
-      </c>
-      <c r="F240" t="s">
-        <v>474</v>
       </c>
       <c r="G240" t="n">
         <v>1</v>
@@ -9721,10 +9700,10 @@
         <v>240</v>
       </c>
       <c r="E241" t="s">
+        <v>474</v>
+      </c>
+      <c r="F241" t="s">
         <v>475</v>
-      </c>
-      <c r="F241" t="s">
-        <v>476</v>
       </c>
       <c r="G241" t="n">
         <v>1</v>
@@ -9750,10 +9729,10 @@
         <v>241</v>
       </c>
       <c r="E242" t="s">
+        <v>476</v>
+      </c>
+      <c r="F242" t="s">
         <v>477</v>
-      </c>
-      <c r="F242" t="s">
-        <v>478</v>
       </c>
       <c r="G242" t="n">
         <v>1</v>
@@ -9779,10 +9758,10 @@
         <v>242</v>
       </c>
       <c r="E243" t="s">
+        <v>478</v>
+      </c>
+      <c r="F243" t="s">
         <v>479</v>
-      </c>
-      <c r="F243" t="s">
-        <v>480</v>
       </c>
       <c r="G243" t="n">
         <v>1</v>
@@ -9808,10 +9787,10 @@
         <v>243</v>
       </c>
       <c r="E244" t="s">
+        <v>480</v>
+      </c>
+      <c r="F244" t="s">
         <v>481</v>
-      </c>
-      <c r="F244" t="s">
-        <v>482</v>
       </c>
       <c r="G244" t="n">
         <v>1</v>
@@ -9837,10 +9816,10 @@
         <v>244</v>
       </c>
       <c r="E245" t="s">
+        <v>482</v>
+      </c>
+      <c r="F245" t="s">
         <v>483</v>
-      </c>
-      <c r="F245" t="s">
-        <v>484</v>
       </c>
       <c r="G245" t="n">
         <v>1</v>
@@ -9866,10 +9845,10 @@
         <v>245</v>
       </c>
       <c r="E246" t="s">
+        <v>484</v>
+      </c>
+      <c r="F246" t="s">
         <v>485</v>
-      </c>
-      <c r="F246" t="s">
-        <v>486</v>
       </c>
       <c r="G246" t="n">
         <v>1</v>
@@ -9895,10 +9874,10 @@
         <v>246</v>
       </c>
       <c r="E247" t="s">
+        <v>486</v>
+      </c>
+      <c r="F247" t="s">
         <v>487</v>
-      </c>
-      <c r="F247" t="s">
-        <v>488</v>
       </c>
       <c r="G247" t="n">
         <v>1</v>
@@ -9924,10 +9903,10 @@
         <v>247</v>
       </c>
       <c r="E248" t="s">
+        <v>488</v>
+      </c>
+      <c r="F248" t="s">
         <v>489</v>
-      </c>
-      <c r="F248" t="s">
-        <v>490</v>
       </c>
       <c r="G248" t="n">
         <v>1</v>
@@ -9953,10 +9932,10 @@
         <v>248</v>
       </c>
       <c r="E249" t="s">
+        <v>490</v>
+      </c>
+      <c r="F249" t="s">
         <v>491</v>
-      </c>
-      <c r="F249" t="s">
-        <v>492</v>
       </c>
       <c r="G249" t="n">
         <v>1</v>
@@ -9982,10 +9961,10 @@
         <v>249</v>
       </c>
       <c r="E250" t="s">
+        <v>492</v>
+      </c>
+      <c r="F250" t="s">
         <v>493</v>
-      </c>
-      <c r="F250" t="s">
-        <v>494</v>
       </c>
       <c r="G250" t="n">
         <v>1</v>
@@ -10011,10 +9990,10 @@
         <v>250</v>
       </c>
       <c r="E251" t="s">
+        <v>494</v>
+      </c>
+      <c r="F251" t="s">
         <v>495</v>
-      </c>
-      <c r="F251" t="s">
-        <v>496</v>
       </c>
       <c r="G251" t="n">
         <v>1</v>
@@ -10040,10 +10019,10 @@
         <v>251</v>
       </c>
       <c r="E252" t="s">
+        <v>496</v>
+      </c>
+      <c r="F252" t="s">
         <v>497</v>
-      </c>
-      <c r="F252" t="s">
-        <v>498</v>
       </c>
       <c r="G252" t="n">
         <v>1</v>
@@ -10069,10 +10048,10 @@
         <v>252</v>
       </c>
       <c r="E253" t="s">
+        <v>498</v>
+      </c>
+      <c r="F253" t="s">
         <v>499</v>
-      </c>
-      <c r="F253" t="s">
-        <v>500</v>
       </c>
       <c r="G253" t="n">
         <v>1</v>
@@ -10098,10 +10077,10 @@
         <v>253</v>
       </c>
       <c r="E254" t="s">
+        <v>500</v>
+      </c>
+      <c r="F254" t="s">
         <v>501</v>
-      </c>
-      <c r="F254" t="s">
-        <v>502</v>
       </c>
       <c r="G254" t="n">
         <v>1</v>
@@ -10127,10 +10106,10 @@
         <v>254</v>
       </c>
       <c r="E255" t="s">
+        <v>502</v>
+      </c>
+      <c r="F255" t="s">
         <v>503</v>
-      </c>
-      <c r="F255" t="s">
-        <v>504</v>
       </c>
       <c r="G255" t="n">
         <v>2</v>
@@ -10156,10 +10135,10 @@
         <v>255</v>
       </c>
       <c r="E256" t="s">
+        <v>504</v>
+      </c>
+      <c r="F256" t="s">
         <v>505</v>
-      </c>
-      <c r="F256" t="s">
-        <v>506</v>
       </c>
       <c r="G256" t="n">
         <v>2</v>
@@ -10185,10 +10164,10 @@
         <v>256</v>
       </c>
       <c r="E257" t="s">
+        <v>506</v>
+      </c>
+      <c r="F257" t="s">
         <v>507</v>
-      </c>
-      <c r="F257" t="s">
-        <v>508</v>
       </c>
       <c r="G257" t="n">
         <v>1</v>
@@ -10214,10 +10193,10 @@
         <v>257</v>
       </c>
       <c r="E258" t="s">
+        <v>508</v>
+      </c>
+      <c r="F258" t="s">
         <v>509</v>
-      </c>
-      <c r="F258" t="s">
-        <v>510</v>
       </c>
       <c r="G258" t="n">
         <v>1</v>
@@ -10243,10 +10222,10 @@
         <v>258</v>
       </c>
       <c r="E259" t="s">
+        <v>510</v>
+      </c>
+      <c r="F259" t="s">
         <v>511</v>
-      </c>
-      <c r="F259" t="s">
-        <v>512</v>
       </c>
       <c r="G259" t="n">
         <v>1</v>
@@ -10272,10 +10251,10 @@
         <v>259</v>
       </c>
       <c r="E260" t="s">
+        <v>512</v>
+      </c>
+      <c r="F260" t="s">
         <v>513</v>
-      </c>
-      <c r="F260" t="s">
-        <v>514</v>
       </c>
       <c r="G260" t="n">
         <v>1</v>
@@ -10301,10 +10280,10 @@
         <v>260</v>
       </c>
       <c r="E261" t="s">
+        <v>514</v>
+      </c>
+      <c r="F261" t="s">
         <v>515</v>
-      </c>
-      <c r="F261" t="s">
-        <v>516</v>
       </c>
       <c r="G261" t="n">
         <v>1</v>
@@ -10330,10 +10309,10 @@
         <v>261</v>
       </c>
       <c r="E262" t="s">
+        <v>516</v>
+      </c>
+      <c r="F262" t="s">
         <v>517</v>
-      </c>
-      <c r="F262" t="s">
-        <v>518</v>
       </c>
       <c r="G262" t="n">
         <v>1</v>
@@ -10359,10 +10338,10 @@
         <v>262</v>
       </c>
       <c r="E263" t="s">
+        <v>518</v>
+      </c>
+      <c r="F263" t="s">
         <v>519</v>
-      </c>
-      <c r="F263" t="s">
-        <v>520</v>
       </c>
       <c r="G263" t="n">
         <v>1</v>
@@ -10388,10 +10367,10 @@
         <v>263</v>
       </c>
       <c r="E264" t="s">
+        <v>444</v>
+      </c>
+      <c r="F264" t="s">
         <v>445</v>
-      </c>
-      <c r="F264" t="s">
-        <v>446</v>
       </c>
       <c r="G264" t="n">
         <v>1</v>
@@ -10417,10 +10396,10 @@
         <v>264</v>
       </c>
       <c r="E265" t="s">
+        <v>520</v>
+      </c>
+      <c r="F265" t="s">
         <v>521</v>
-      </c>
-      <c r="F265" t="s">
-        <v>522</v>
       </c>
       <c r="G265" t="n">
         <v>1</v>
@@ -10446,10 +10425,10 @@
         <v>265</v>
       </c>
       <c r="E266" t="s">
+        <v>522</v>
+      </c>
+      <c r="F266" t="s">
         <v>523</v>
-      </c>
-      <c r="F266" t="s">
-        <v>524</v>
       </c>
       <c r="G266" t="n">
         <v>1</v>
@@ -10475,10 +10454,10 @@
         <v>266</v>
       </c>
       <c r="E267" t="s">
-        <v>525</v>
+        <v>524</v>
       </c>
       <c r="F267" t="s">
-        <v>526</v>
+        <v>54</v>
       </c>
       <c r="G267" t="n">
         <v>1</v>
@@ -10504,10 +10483,10 @@
         <v>267</v>
       </c>
       <c r="E268" t="s">
-        <v>527</v>
+        <v>525</v>
       </c>
       <c r="F268" t="s">
-        <v>528</v>
+        <v>526</v>
       </c>
       <c r="G268" t="n">
         <v>1</v>
@@ -10533,10 +10512,10 @@
         <v>268</v>
       </c>
       <c r="E269" t="s">
-        <v>529</v>
+        <v>527</v>
       </c>
       <c r="F269" t="s">
-        <v>530</v>
+        <v>528</v>
       </c>
       <c r="G269" t="n">
         <v>1</v>
@@ -10562,10 +10541,10 @@
         <v>269</v>
       </c>
       <c r="E270" t="s">
-        <v>531</v>
+        <v>529</v>
       </c>
       <c r="F270" t="s">
-        <v>532</v>
+        <v>530</v>
       </c>
       <c r="G270" t="n">
         <v>1</v>
@@ -10591,10 +10570,10 @@
         <v>270</v>
       </c>
       <c r="E271" t="s">
-        <v>533</v>
+        <v>531</v>
       </c>
       <c r="F271" t="s">
-        <v>534</v>
+        <v>38</v>
       </c>
       <c r="G271" t="n">
         <v>1</v>
@@ -10620,10 +10599,10 @@
         <v>271</v>
       </c>
       <c r="E272" t="s">
-        <v>535</v>
+        <v>532</v>
       </c>
       <c r="F272" t="s">
-        <v>536</v>
+        <v>533</v>
       </c>
       <c r="G272" t="n">
         <v>1</v>
@@ -10649,10 +10628,10 @@
         <v>272</v>
       </c>
       <c r="E273" t="s">
-        <v>537</v>
+        <v>534</v>
       </c>
       <c r="F273" t="s">
-        <v>538</v>
+        <v>535</v>
       </c>
       <c r="G273" t="n">
         <v>2</v>
@@ -10678,10 +10657,10 @@
         <v>273</v>
       </c>
       <c r="E274" t="s">
-        <v>539</v>
+        <v>536</v>
       </c>
       <c r="F274" t="s">
-        <v>540</v>
+        <v>537</v>
       </c>
       <c r="G274" t="n">
         <v>15</v>
@@ -10707,10 +10686,10 @@
         <v>274</v>
       </c>
       <c r="E275" t="s">
-        <v>541</v>
+        <v>538</v>
       </c>
       <c r="F275" t="s">
-        <v>542</v>
+        <v>539</v>
       </c>
       <c r="G275" t="n">
         <v>1</v>
@@ -10736,10 +10715,10 @@
         <v>275</v>
       </c>
       <c r="E276" t="s">
-        <v>543</v>
+        <v>540</v>
       </c>
       <c r="F276" t="s">
-        <v>544</v>
+        <v>541</v>
       </c>
       <c r="G276" t="n">
         <v>1</v>
@@ -10765,10 +10744,10 @@
         <v>276</v>
       </c>
       <c r="E277" t="s">
-        <v>545</v>
+        <v>542</v>
       </c>
       <c r="F277" t="s">
-        <v>546</v>
+        <v>543</v>
       </c>
       <c r="G277" t="n">
         <v>3</v>
@@ -10794,10 +10773,10 @@
         <v>277</v>
       </c>
       <c r="E278" t="s">
-        <v>547</v>
+        <v>544</v>
       </c>
       <c r="F278" t="s">
-        <v>548</v>
+        <v>545</v>
       </c>
       <c r="G278" t="n">
         <v>1</v>
@@ -10823,10 +10802,10 @@
         <v>278</v>
       </c>
       <c r="E279" t="s">
-        <v>549</v>
+        <v>546</v>
       </c>
       <c r="F279" t="s">
-        <v>550</v>
+        <v>547</v>
       </c>
       <c r="G279" t="n">
         <v>1</v>
@@ -10852,10 +10831,10 @@
         <v>279</v>
       </c>
       <c r="E280" t="s">
-        <v>551</v>
+        <v>548</v>
       </c>
       <c r="F280" t="s">
-        <v>552</v>
+        <v>549</v>
       </c>
       <c r="G280" t="n">
         <v>1</v>
@@ -10881,10 +10860,10 @@
         <v>280</v>
       </c>
       <c r="E281" t="s">
-        <v>553</v>
+        <v>550</v>
       </c>
       <c r="F281" t="s">
-        <v>554</v>
+        <v>551</v>
       </c>
       <c r="G281" t="n">
         <v>1</v>
@@ -10910,10 +10889,10 @@
         <v>281</v>
       </c>
       <c r="E282" t="s">
-        <v>555</v>
+        <v>552</v>
       </c>
       <c r="F282" t="s">
-        <v>556</v>
+        <v>553</v>
       </c>
       <c r="G282" t="n">
         <v>1</v>
@@ -10939,10 +10918,10 @@
         <v>282</v>
       </c>
       <c r="E283" t="s">
-        <v>557</v>
+        <v>554</v>
       </c>
       <c r="F283" t="s">
-        <v>558</v>
+        <v>555</v>
       </c>
       <c r="G283" t="n">
         <v>1</v>
@@ -10968,10 +10947,10 @@
         <v>283</v>
       </c>
       <c r="E284" t="s">
-        <v>559</v>
+        <v>556</v>
       </c>
       <c r="F284" t="s">
-        <v>560</v>
+        <v>557</v>
       </c>
       <c r="G284" t="n">
         <v>1</v>
@@ -10997,10 +10976,10 @@
         <v>284</v>
       </c>
       <c r="E285" t="s">
-        <v>561</v>
+        <v>558</v>
       </c>
       <c r="F285" t="s">
-        <v>562</v>
+        <v>559</v>
       </c>
       <c r="G285" t="n">
         <v>1</v>
@@ -11026,10 +11005,10 @@
         <v>285</v>
       </c>
       <c r="E286" t="s">
-        <v>563</v>
+        <v>560</v>
       </c>
       <c r="F286" t="s">
-        <v>564</v>
+        <v>561</v>
       </c>
       <c r="G286" t="n">
         <v>1</v>
@@ -11055,10 +11034,10 @@
         <v>286</v>
       </c>
       <c r="E287" t="s">
-        <v>565</v>
+        <v>562</v>
       </c>
       <c r="F287" t="s">
-        <v>566</v>
+        <v>563</v>
       </c>
       <c r="G287" t="n">
         <v>1</v>
@@ -11084,10 +11063,10 @@
         <v>287</v>
       </c>
       <c r="E288" t="s">
-        <v>567</v>
+        <v>564</v>
       </c>
       <c r="F288" t="s">
-        <v>568</v>
+        <v>565</v>
       </c>
       <c r="G288" t="n">
         <v>1</v>
@@ -11113,10 +11092,10 @@
         <v>288</v>
       </c>
       <c r="E289" t="s">
-        <v>569</v>
+        <v>566</v>
       </c>
       <c r="F289" t="s">
-        <v>570</v>
+        <v>567</v>
       </c>
       <c r="G289" t="n">
         <v>1</v>
@@ -11142,10 +11121,10 @@
         <v>289</v>
       </c>
       <c r="E290" t="s">
-        <v>571</v>
+        <v>568</v>
       </c>
       <c r="F290" t="s">
-        <v>572</v>
+        <v>569</v>
       </c>
       <c r="G290" t="n">
         <v>1</v>
@@ -11171,10 +11150,10 @@
         <v>290</v>
       </c>
       <c r="E291" t="s">
-        <v>573</v>
+        <v>570</v>
       </c>
       <c r="F291" t="s">
-        <v>574</v>
+        <v>571</v>
       </c>
       <c r="G291" t="n">
         <v>1</v>
@@ -11200,10 +11179,10 @@
         <v>291</v>
       </c>
       <c r="E292" t="s">
-        <v>575</v>
+        <v>572</v>
       </c>
       <c r="F292" t="s">
-        <v>576</v>
+        <v>573</v>
       </c>
       <c r="G292" t="n">
         <v>1</v>
@@ -11229,10 +11208,10 @@
         <v>292</v>
       </c>
       <c r="E293" t="s">
-        <v>577</v>
+        <v>574</v>
       </c>
       <c r="F293" t="s">
-        <v>578</v>
+        <v>575</v>
       </c>
       <c r="G293" t="n">
         <v>1</v>
@@ -11258,10 +11237,10 @@
         <v>293</v>
       </c>
       <c r="E294" t="s">
-        <v>579</v>
+        <v>576</v>
       </c>
       <c r="F294" t="s">
-        <v>580</v>
+        <v>577</v>
       </c>
       <c r="G294" t="n">
         <v>1</v>
@@ -11287,10 +11266,10 @@
         <v>294</v>
       </c>
       <c r="E295" t="s">
-        <v>581</v>
+        <v>578</v>
       </c>
       <c r="F295" t="s">
-        <v>582</v>
+        <v>579</v>
       </c>
       <c r="G295" t="n">
         <v>1</v>
@@ -11316,10 +11295,10 @@
         <v>295</v>
       </c>
       <c r="E296" t="s">
-        <v>583</v>
+        <v>580</v>
       </c>
       <c r="F296" t="s">
-        <v>584</v>
+        <v>581</v>
       </c>
       <c r="G296" t="n">
         <v>1</v>
@@ -11345,10 +11324,10 @@
         <v>296</v>
       </c>
       <c r="E297" t="s">
-        <v>585</v>
+        <v>582</v>
       </c>
       <c r="F297" t="s">
-        <v>586</v>
+        <v>583</v>
       </c>
       <c r="G297" t="n">
         <v>1</v>
@@ -11374,10 +11353,10 @@
         <v>297</v>
       </c>
       <c r="E298" t="s">
-        <v>587</v>
+        <v>584</v>
       </c>
       <c r="F298" t="s">
-        <v>588</v>
+        <v>585</v>
       </c>
       <c r="G298" t="n">
         <v>1</v>
@@ -11403,10 +11382,10 @@
         <v>298</v>
       </c>
       <c r="E299" t="s">
-        <v>589</v>
+        <v>586</v>
       </c>
       <c r="F299" t="s">
-        <v>590</v>
+        <v>587</v>
       </c>
       <c r="G299" t="n">
         <v>1</v>
@@ -11432,10 +11411,10 @@
         <v>299</v>
       </c>
       <c r="E300" t="s">
-        <v>591</v>
+        <v>588</v>
       </c>
       <c r="F300" t="s">
-        <v>592</v>
+        <v>589</v>
       </c>
       <c r="G300" t="n">
         <v>1</v>
@@ -11461,10 +11440,10 @@
         <v>300</v>
       </c>
       <c r="E301" t="s">
-        <v>593</v>
+        <v>590</v>
       </c>
       <c r="F301" t="s">
-        <v>594</v>
+        <v>591</v>
       </c>
       <c r="G301" t="n">
         <v>1</v>
@@ -11490,10 +11469,10 @@
         <v>301</v>
       </c>
       <c r="E302" t="s">
-        <v>595</v>
+        <v>592</v>
       </c>
       <c r="F302" t="s">
-        <v>596</v>
+        <v>593</v>
       </c>
       <c r="G302" t="n">
         <v>1</v>
@@ -11519,10 +11498,10 @@
         <v>302</v>
       </c>
       <c r="E303" t="s">
-        <v>597</v>
+        <v>594</v>
       </c>
       <c r="F303" t="s">
-        <v>598</v>
+        <v>595</v>
       </c>
       <c r="G303" t="n">
         <v>1</v>
@@ -11548,10 +11527,10 @@
         <v>303</v>
       </c>
       <c r="E304" t="s">
-        <v>599</v>
+        <v>596</v>
       </c>
       <c r="F304" t="s">
-        <v>600</v>
+        <v>597</v>
       </c>
       <c r="G304" t="n">
         <v>1</v>
@@ -11577,10 +11556,10 @@
         <v>304</v>
       </c>
       <c r="E305" t="s">
-        <v>601</v>
+        <v>598</v>
       </c>
       <c r="F305" t="s">
-        <v>602</v>
+        <v>599</v>
       </c>
       <c r="G305" t="n">
         <v>5</v>
@@ -11606,10 +11585,10 @@
         <v>305</v>
       </c>
       <c r="E306" t="s">
-        <v>603</v>
+        <v>600</v>
       </c>
       <c r="F306" t="s">
-        <v>604</v>
+        <v>601</v>
       </c>
       <c r="G306" t="n">
         <v>1</v>
@@ -11635,10 +11614,10 @@
         <v>306</v>
       </c>
       <c r="E307" t="s">
-        <v>605</v>
+        <v>602</v>
       </c>
       <c r="F307" t="s">
-        <v>606</v>
+        <v>603</v>
       </c>
       <c r="G307" t="n">
         <v>1</v>
@@ -11664,10 +11643,10 @@
         <v>307</v>
       </c>
       <c r="E308" t="s">
-        <v>607</v>
+        <v>604</v>
       </c>
       <c r="F308" t="s">
-        <v>608</v>
+        <v>605</v>
       </c>
       <c r="G308" t="n">
         <v>1</v>
@@ -11693,10 +11672,10 @@
         <v>308</v>
       </c>
       <c r="E309" t="s">
-        <v>609</v>
+        <v>606</v>
       </c>
       <c r="F309" t="s">
-        <v>610</v>
+        <v>607</v>
       </c>
       <c r="G309" t="n">
         <v>1</v>
@@ -11722,10 +11701,10 @@
         <v>309</v>
       </c>
       <c r="E310" t="s">
-        <v>611</v>
+        <v>608</v>
       </c>
       <c r="F310" t="s">
-        <v>612</v>
+        <v>609</v>
       </c>
       <c r="G310" t="n">
         <v>1</v>
@@ -11751,10 +11730,10 @@
         <v>310</v>
       </c>
       <c r="E311" t="s">
-        <v>613</v>
+        <v>610</v>
       </c>
       <c r="F311" t="s">
-        <v>614</v>
+        <v>611</v>
       </c>
       <c r="G311" t="n">
         <v>1</v>
@@ -11780,10 +11759,10 @@
         <v>311</v>
       </c>
       <c r="E312" t="s">
-        <v>615</v>
+        <v>612</v>
       </c>
       <c r="F312" t="s">
-        <v>616</v>
+        <v>613</v>
       </c>
       <c r="G312" t="n">
         <v>1</v>
@@ -11809,10 +11788,10 @@
         <v>312</v>
       </c>
       <c r="E313" t="s">
-        <v>617</v>
+        <v>614</v>
       </c>
       <c r="F313" t="s">
-        <v>618</v>
+        <v>615</v>
       </c>
       <c r="G313" t="n">
         <v>1</v>
@@ -11838,10 +11817,10 @@
         <v>313</v>
       </c>
       <c r="E314" t="s">
-        <v>619</v>
+        <v>616</v>
       </c>
       <c r="F314" t="s">
-        <v>620</v>
+        <v>617</v>
       </c>
       <c r="G314" t="n">
         <v>1</v>
@@ -11896,10 +11875,10 @@
         <v>315</v>
       </c>
       <c r="E316" t="s">
-        <v>621</v>
+        <v>618</v>
       </c>
       <c r="F316" t="s">
-        <v>622</v>
+        <v>619</v>
       </c>
       <c r="G316" t="n">
         <v>1</v>
@@ -11925,10 +11904,10 @@
         <v>316</v>
       </c>
       <c r="E317" t="s">
-        <v>623</v>
+        <v>620</v>
       </c>
       <c r="F317" t="s">
-        <v>624</v>
+        <v>621</v>
       </c>
       <c r="G317" t="n">
         <v>2</v>
@@ -11954,10 +11933,10 @@
         <v>317</v>
       </c>
       <c r="E318" t="s">
-        <v>625</v>
+        <v>622</v>
       </c>
       <c r="F318" t="s">
-        <v>626</v>
+        <v>623</v>
       </c>
       <c r="G318" t="n">
         <v>1</v>
@@ -11983,10 +11962,10 @@
         <v>318</v>
       </c>
       <c r="E319" t="s">
-        <v>627</v>
+        <v>624</v>
       </c>
       <c r="F319" t="s">
-        <v>628</v>
+        <v>625</v>
       </c>
       <c r="G319" t="n">
         <v>1</v>
@@ -12012,10 +11991,10 @@
         <v>319</v>
       </c>
       <c r="E320" t="s">
-        <v>629</v>
+        <v>626</v>
       </c>
       <c r="F320" t="s">
-        <v>630</v>
+        <v>92</v>
       </c>
       <c r="G320" t="n">
         <v>1</v>
@@ -12041,10 +12020,10 @@
         <v>320</v>
       </c>
       <c r="E321" t="s">
-        <v>631</v>
+        <v>627</v>
       </c>
       <c r="F321" t="s">
-        <v>632</v>
+        <v>628</v>
       </c>
       <c r="G321" t="n">
         <v>1</v>
@@ -12070,10 +12049,10 @@
         <v>321</v>
       </c>
       <c r="E322" t="s">
-        <v>633</v>
+        <v>629</v>
       </c>
       <c r="F322" t="s">
-        <v>634</v>
+        <v>630</v>
       </c>
       <c r="G322" t="n">
         <v>1</v>
@@ -12099,10 +12078,10 @@
         <v>322</v>
       </c>
       <c r="E323" t="s">
-        <v>635</v>
+        <v>631</v>
       </c>
       <c r="F323" t="s">
-        <v>636</v>
+        <v>632</v>
       </c>
       <c r="G323" t="n">
         <v>1</v>
@@ -12128,10 +12107,10 @@
         <v>323</v>
       </c>
       <c r="E324" t="s">
-        <v>637</v>
+        <v>633</v>
       </c>
       <c r="F324" t="s">
-        <v>638</v>
+        <v>634</v>
       </c>
       <c r="G324" t="n">
         <v>1</v>
@@ -12157,10 +12136,10 @@
         <v>324</v>
       </c>
       <c r="E325" t="s">
-        <v>639</v>
+        <v>635</v>
       </c>
       <c r="F325" t="s">
-        <v>640</v>
+        <v>636</v>
       </c>
       <c r="G325" t="n">
         <v>1</v>
@@ -12186,10 +12165,10 @@
         <v>325</v>
       </c>
       <c r="E326" t="s">
-        <v>641</v>
+        <v>637</v>
       </c>
       <c r="F326" t="s">
-        <v>642</v>
+        <v>638</v>
       </c>
       <c r="G326" t="n">
         <v>1</v>
@@ -12215,10 +12194,10 @@
         <v>326</v>
       </c>
       <c r="E327" t="s">
-        <v>643</v>
+        <v>639</v>
       </c>
       <c r="F327" t="s">
-        <v>644</v>
+        <v>640</v>
       </c>
       <c r="G327" t="n">
         <v>1</v>
@@ -12244,10 +12223,10 @@
         <v>327</v>
       </c>
       <c r="E328" t="s">
-        <v>645</v>
+        <v>641</v>
       </c>
       <c r="F328" t="s">
-        <v>646</v>
+        <v>642</v>
       </c>
       <c r="G328" t="n">
         <v>1</v>
@@ -12273,10 +12252,10 @@
         <v>328</v>
       </c>
       <c r="E329" t="s">
-        <v>647</v>
+        <v>643</v>
       </c>
       <c r="F329" t="s">
-        <v>648</v>
+        <v>644</v>
       </c>
       <c r="G329" t="n">
         <v>1</v>
@@ -12302,10 +12281,10 @@
         <v>329</v>
       </c>
       <c r="E330" t="s">
-        <v>649</v>
+        <v>645</v>
       </c>
       <c r="F330" t="s">
-        <v>650</v>
+        <v>646</v>
       </c>
       <c r="G330" t="n">
         <v>1</v>
@@ -12331,10 +12310,10 @@
         <v>330</v>
       </c>
       <c r="E331" t="s">
-        <v>651</v>
+        <v>647</v>
       </c>
       <c r="F331" t="s">
-        <v>652</v>
+        <v>648</v>
       </c>
       <c r="G331" t="n">
         <v>1</v>
@@ -12360,10 +12339,10 @@
         <v>331</v>
       </c>
       <c r="E332" t="s">
-        <v>653</v>
+        <v>649</v>
       </c>
       <c r="F332" t="s">
-        <v>654</v>
+        <v>650</v>
       </c>
       <c r="G332" t="n">
         <v>1</v>
@@ -12389,10 +12368,10 @@
         <v>332</v>
       </c>
       <c r="E333" t="s">
-        <v>655</v>
+        <v>651</v>
       </c>
       <c r="F333" t="s">
-        <v>656</v>
+        <v>652</v>
       </c>
       <c r="G333" t="n">
         <v>1</v>
@@ -12418,10 +12397,10 @@
         <v>333</v>
       </c>
       <c r="E334" t="s">
-        <v>657</v>
+        <v>653</v>
       </c>
       <c r="F334" t="s">
-        <v>658</v>
+        <v>654</v>
       </c>
       <c r="G334" t="n">
         <v>1</v>
@@ -12447,10 +12426,10 @@
         <v>334</v>
       </c>
       <c r="E335" t="s">
-        <v>659</v>
+        <v>655</v>
       </c>
       <c r="F335" t="s">
-        <v>660</v>
+        <v>656</v>
       </c>
       <c r="G335" t="n">
         <v>1</v>
@@ -12476,10 +12455,10 @@
         <v>335</v>
       </c>
       <c r="E336" t="s">
-        <v>661</v>
+        <v>657</v>
       </c>
       <c r="F336" t="s">
-        <v>662</v>
+        <v>658</v>
       </c>
       <c r="G336" t="n">
         <v>1</v>
@@ -12505,10 +12484,10 @@
         <v>336</v>
       </c>
       <c r="E337" t="s">
-        <v>663</v>
+        <v>659</v>
       </c>
       <c r="F337" t="s">
-        <v>664</v>
+        <v>660</v>
       </c>
       <c r="G337" t="n">
         <v>1</v>
@@ -12534,10 +12513,10 @@
         <v>337</v>
       </c>
       <c r="E338" t="s">
-        <v>665</v>
+        <v>661</v>
       </c>
       <c r="F338" t="s">
-        <v>666</v>
+        <v>662</v>
       </c>
       <c r="G338" t="n">
         <v>2</v>
@@ -12563,10 +12542,10 @@
         <v>338</v>
       </c>
       <c r="E339" t="s">
-        <v>667</v>
+        <v>663</v>
       </c>
       <c r="F339" t="s">
-        <v>668</v>
+        <v>664</v>
       </c>
       <c r="G339" t="n">
         <v>1</v>
@@ -12592,10 +12571,10 @@
         <v>339</v>
       </c>
       <c r="E340" t="s">
-        <v>669</v>
+        <v>665</v>
       </c>
       <c r="F340" t="s">
-        <v>670</v>
+        <v>666</v>
       </c>
       <c r="G340" t="n">
         <v>4</v>
@@ -12621,10 +12600,10 @@
         <v>340</v>
       </c>
       <c r="E341" t="s">
-        <v>671</v>
+        <v>667</v>
       </c>
       <c r="F341" t="s">
-        <v>672</v>
+        <v>668</v>
       </c>
       <c r="G341" t="n">
         <v>1</v>
@@ -12650,10 +12629,10 @@
         <v>341</v>
       </c>
       <c r="E342" t="s">
-        <v>673</v>
+        <v>669</v>
       </c>
       <c r="F342" t="s">
-        <v>674</v>
+        <v>670</v>
       </c>
       <c r="G342" t="n">
         <v>1</v>
@@ -12679,10 +12658,10 @@
         <v>342</v>
       </c>
       <c r="E343" t="s">
-        <v>675</v>
+        <v>671</v>
       </c>
       <c r="F343" t="s">
-        <v>676</v>
+        <v>672</v>
       </c>
       <c r="G343" t="n">
         <v>1</v>
@@ -12708,10 +12687,10 @@
         <v>343</v>
       </c>
       <c r="E344" t="s">
-        <v>677</v>
+        <v>673</v>
       </c>
       <c r="F344" t="s">
-        <v>678</v>
+        <v>146</v>
       </c>
       <c r="G344" t="n">
         <v>1</v>
@@ -12737,10 +12716,10 @@
         <v>344</v>
       </c>
       <c r="E345" t="s">
-        <v>679</v>
+        <v>674</v>
       </c>
       <c r="F345" t="s">
-        <v>680</v>
+        <v>675</v>
       </c>
       <c r="G345" t="n">
         <v>1</v>
@@ -12766,10 +12745,10 @@
         <v>345</v>
       </c>
       <c r="E346" t="s">
-        <v>681</v>
+        <v>676</v>
       </c>
       <c r="F346" t="s">
-        <v>682</v>
+        <v>677</v>
       </c>
       <c r="G346" t="n">
         <v>1</v>
@@ -12795,10 +12774,10 @@
         <v>346</v>
       </c>
       <c r="E347" t="s">
-        <v>683</v>
+        <v>678</v>
       </c>
       <c r="F347" t="s">
-        <v>684</v>
+        <v>679</v>
       </c>
       <c r="G347" t="n">
         <v>1</v>
@@ -12824,10 +12803,10 @@
         <v>347</v>
       </c>
       <c r="E348" t="s">
-        <v>685</v>
+        <v>680</v>
       </c>
       <c r="F348" t="s">
-        <v>686</v>
+        <v>681</v>
       </c>
       <c r="G348" t="n">
         <v>1</v>
@@ -12853,10 +12832,10 @@
         <v>348</v>
       </c>
       <c r="E349" t="s">
-        <v>687</v>
+        <v>682</v>
       </c>
       <c r="F349" t="s">
-        <v>688</v>
+        <v>683</v>
       </c>
       <c r="G349" t="n">
         <v>1</v>
@@ -12882,10 +12861,10 @@
         <v>349</v>
       </c>
       <c r="E350" t="s">
-        <v>689</v>
+        <v>684</v>
       </c>
       <c r="F350" t="s">
-        <v>690</v>
+        <v>685</v>
       </c>
       <c r="G350" t="n">
         <v>1</v>
@@ -12911,10 +12890,10 @@
         <v>350</v>
       </c>
       <c r="E351" t="s">
-        <v>691</v>
+        <v>686</v>
       </c>
       <c r="F351" t="s">
-        <v>692</v>
+        <v>687</v>
       </c>
       <c r="G351" t="n">
         <v>1</v>
@@ -12940,10 +12919,10 @@
         <v>351</v>
       </c>
       <c r="E352" t="s">
-        <v>693</v>
+        <v>688</v>
       </c>
       <c r="F352" t="s">
-        <v>694</v>
+        <v>689</v>
       </c>
       <c r="G352" t="n">
         <v>2</v>
@@ -12969,10 +12948,10 @@
         <v>352</v>
       </c>
       <c r="E353" t="s">
-        <v>695</v>
+        <v>690</v>
       </c>
       <c r="F353" t="s">
-        <v>696</v>
+        <v>691</v>
       </c>
       <c r="G353" t="n">
         <v>1</v>
@@ -12998,10 +12977,10 @@
         <v>353</v>
       </c>
       <c r="E354" t="s">
-        <v>697</v>
+        <v>692</v>
       </c>
       <c r="F354" t="s">
-        <v>698</v>
+        <v>190</v>
       </c>
       <c r="G354" t="n">
         <v>1</v>
@@ -13027,10 +13006,10 @@
         <v>354</v>
       </c>
       <c r="E355" t="s">
-        <v>699</v>
+        <v>693</v>
       </c>
       <c r="F355" t="s">
-        <v>700</v>
+        <v>694</v>
       </c>
       <c r="G355" t="n">
         <v>14</v>
@@ -13056,10 +13035,10 @@
         <v>355</v>
       </c>
       <c r="E356" t="s">
-        <v>701</v>
+        <v>695</v>
       </c>
       <c r="F356" t="s">
-        <v>702</v>
+        <v>696</v>
       </c>
       <c r="G356" t="n">
         <v>1</v>
@@ -13085,10 +13064,10 @@
         <v>356</v>
       </c>
       <c r="E357" t="s">
-        <v>703</v>
+        <v>697</v>
       </c>
       <c r="F357" t="s">
-        <v>704</v>
+        <v>698</v>
       </c>
       <c r="G357" t="n">
         <v>1</v>
@@ -13114,10 +13093,10 @@
         <v>357</v>
       </c>
       <c r="E358" t="s">
-        <v>705</v>
+        <v>699</v>
       </c>
       <c r="F358" t="s">
-        <v>706</v>
+        <v>700</v>
       </c>
       <c r="G358" t="n">
         <v>1</v>
@@ -13143,10 +13122,10 @@
         <v>358</v>
       </c>
       <c r="E359" t="s">
-        <v>707</v>
+        <v>701</v>
       </c>
       <c r="F359" t="s">
-        <v>708</v>
+        <v>702</v>
       </c>
       <c r="G359" t="n">
         <v>1</v>
@@ -13172,10 +13151,10 @@
         <v>359</v>
       </c>
       <c r="E360" t="s">
-        <v>709</v>
+        <v>703</v>
       </c>
       <c r="F360" t="s">
-        <v>710</v>
+        <v>704</v>
       </c>
       <c r="G360" t="n">
         <v>1</v>
@@ -13201,10 +13180,10 @@
         <v>360</v>
       </c>
       <c r="E361" t="s">
-        <v>711</v>
+        <v>705</v>
       </c>
       <c r="F361" t="s">
-        <v>712</v>
+        <v>706</v>
       </c>
       <c r="G361" t="n">
         <v>1</v>
@@ -13230,10 +13209,10 @@
         <v>361</v>
       </c>
       <c r="E362" t="s">
-        <v>713</v>
+        <v>707</v>
       </c>
       <c r="F362" t="s">
-        <v>714</v>
+        <v>708</v>
       </c>
       <c r="G362" t="n">
         <v>1</v>
@@ -13259,10 +13238,10 @@
         <v>362</v>
       </c>
       <c r="E363" t="s">
-        <v>715</v>
+        <v>709</v>
       </c>
       <c r="F363" t="s">
-        <v>716</v>
+        <v>710</v>
       </c>
       <c r="G363" t="n">
         <v>2</v>
@@ -13288,10 +13267,10 @@
         <v>363</v>
       </c>
       <c r="E364" t="s">
-        <v>717</v>
+        <v>711</v>
       </c>
       <c r="F364" t="s">
-        <v>718</v>
+        <v>712</v>
       </c>
       <c r="G364" t="n">
         <v>1</v>
@@ -13317,10 +13296,10 @@
         <v>364</v>
       </c>
       <c r="E365" t="s">
-        <v>719</v>
+        <v>713</v>
       </c>
       <c r="F365" t="s">
-        <v>720</v>
+        <v>714</v>
       </c>
       <c r="G365" t="n">
         <v>1</v>
@@ -13346,10 +13325,10 @@
         <v>365</v>
       </c>
       <c r="E366" t="s">
-        <v>721</v>
+        <v>715</v>
       </c>
       <c r="F366" t="s">
-        <v>722</v>
+        <v>716</v>
       </c>
       <c r="G366" t="n">
         <v>2</v>
@@ -13375,10 +13354,10 @@
         <v>366</v>
       </c>
       <c r="E367" t="s">
-        <v>723</v>
+        <v>717</v>
       </c>
       <c r="F367" t="s">
-        <v>724</v>
+        <v>718</v>
       </c>
       <c r="G367" t="n">
         <v>1</v>
@@ -13404,10 +13383,10 @@
         <v>367</v>
       </c>
       <c r="E368" t="s">
-        <v>725</v>
+        <v>719</v>
       </c>
       <c r="F368" t="s">
-        <v>726</v>
+        <v>720</v>
       </c>
       <c r="G368" t="n">
         <v>1</v>
@@ -13433,10 +13412,10 @@
         <v>368</v>
       </c>
       <c r="E369" t="s">
-        <v>727</v>
+        <v>721</v>
       </c>
       <c r="F369" t="s">
-        <v>728</v>
+        <v>722</v>
       </c>
       <c r="G369" t="n">
         <v>1</v>
@@ -13462,10 +13441,10 @@
         <v>369</v>
       </c>
       <c r="E370" t="s">
-        <v>729</v>
+        <v>723</v>
       </c>
       <c r="F370" t="s">
-        <v>730</v>
+        <v>724</v>
       </c>
       <c r="G370" t="n">
         <v>1</v>
@@ -13491,10 +13470,10 @@
         <v>370</v>
       </c>
       <c r="E371" t="s">
-        <v>731</v>
+        <v>725</v>
       </c>
       <c r="F371" t="s">
-        <v>732</v>
+        <v>726</v>
       </c>
       <c r="G371" t="n">
         <v>1</v>
@@ -13520,10 +13499,10 @@
         <v>371</v>
       </c>
       <c r="E372" t="s">
-        <v>733</v>
+        <v>727</v>
       </c>
       <c r="F372" t="s">
-        <v>734</v>
+        <v>728</v>
       </c>
       <c r="G372" t="n">
         <v>1</v>
@@ -13549,10 +13528,10 @@
         <v>372</v>
       </c>
       <c r="E373" t="s">
-        <v>735</v>
+        <v>729</v>
       </c>
       <c r="F373" t="s">
-        <v>736</v>
+        <v>730</v>
       </c>
       <c r="G373" t="n">
         <v>1</v>
@@ -13578,10 +13557,10 @@
         <v>373</v>
       </c>
       <c r="E374" t="s">
-        <v>737</v>
+        <v>731</v>
       </c>
       <c r="F374" t="s">
-        <v>738</v>
+        <v>732</v>
       </c>
       <c r="G374" t="n">
         <v>1</v>
@@ -13607,10 +13586,10 @@
         <v>374</v>
       </c>
       <c r="E375" t="s">
-        <v>739</v>
+        <v>733</v>
       </c>
       <c r="F375" t="s">
-        <v>740</v>
+        <v>734</v>
       </c>
       <c r="G375" t="n">
         <v>1</v>
@@ -13636,10 +13615,10 @@
         <v>375</v>
       </c>
       <c r="E376" t="s">
-        <v>741</v>
+        <v>735</v>
       </c>
       <c r="F376" t="s">
-        <v>742</v>
+        <v>736</v>
       </c>
       <c r="G376" t="n">
         <v>1</v>
@@ -13665,10 +13644,10 @@
         <v>376</v>
       </c>
       <c r="E377" t="s">
-        <v>743</v>
+        <v>737</v>
       </c>
       <c r="F377" t="s">
-        <v>744</v>
+        <v>716</v>
       </c>
       <c r="G377" t="n">
         <v>1</v>
@@ -13694,10 +13673,10 @@
         <v>377</v>
       </c>
       <c r="E378" t="s">
-        <v>745</v>
+        <v>738</v>
       </c>
       <c r="F378" t="s">
-        <v>746</v>
+        <v>739</v>
       </c>
       <c r="G378" t="n">
         <v>1</v>
@@ -13723,10 +13702,10 @@
         <v>378</v>
       </c>
       <c r="E379" t="s">
-        <v>747</v>
+        <v>740</v>
       </c>
       <c r="F379" t="s">
-        <v>748</v>
+        <v>741</v>
       </c>
       <c r="G379" t="n">
         <v>1</v>
@@ -13752,10 +13731,10 @@
         <v>379</v>
       </c>
       <c r="E380" t="s">
-        <v>749</v>
+        <v>742</v>
       </c>
       <c r="F380" t="s">
-        <v>750</v>
+        <v>743</v>
       </c>
       <c r="G380" t="n">
         <v>1</v>
@@ -13781,10 +13760,10 @@
         <v>380</v>
       </c>
       <c r="E381" t="s">
-        <v>751</v>
+        <v>744</v>
       </c>
       <c r="F381" t="s">
-        <v>752</v>
+        <v>745</v>
       </c>
       <c r="G381" t="n">
         <v>2</v>
@@ -13810,10 +13789,10 @@
         <v>381</v>
       </c>
       <c r="E382" t="s">
-        <v>753</v>
+        <v>746</v>
       </c>
       <c r="F382" t="s">
-        <v>754</v>
+        <v>747</v>
       </c>
       <c r="G382" t="n">
         <v>1</v>
@@ -13839,10 +13818,10 @@
         <v>382</v>
       </c>
       <c r="E383" t="s">
-        <v>755</v>
+        <v>748</v>
       </c>
       <c r="F383" t="s">
-        <v>756</v>
+        <v>749</v>
       </c>
       <c r="G383" t="n">
         <v>1</v>
@@ -13868,10 +13847,10 @@
         <v>383</v>
       </c>
       <c r="E384" t="s">
-        <v>757</v>
+        <v>750</v>
       </c>
       <c r="F384" t="s">
-        <v>758</v>
+        <v>751</v>
       </c>
       <c r="G384" t="n">
         <v>2</v>
@@ -13897,10 +13876,10 @@
         <v>384</v>
       </c>
       <c r="E385" t="s">
-        <v>759</v>
+        <v>752</v>
       </c>
       <c r="F385" t="s">
-        <v>760</v>
+        <v>753</v>
       </c>
       <c r="G385" t="n">
         <v>1</v>
@@ -13926,10 +13905,10 @@
         <v>385</v>
       </c>
       <c r="E386" t="s">
-        <v>761</v>
+        <v>754</v>
       </c>
       <c r="F386" t="s">
-        <v>762</v>
+        <v>755</v>
       </c>
       <c r="G386" t="n">
         <v>1</v>
@@ -13955,10 +13934,10 @@
         <v>386</v>
       </c>
       <c r="E387" t="s">
-        <v>763</v>
+        <v>756</v>
       </c>
       <c r="F387" t="s">
-        <v>764</v>
+        <v>757</v>
       </c>
       <c r="G387" t="n">
         <v>1</v>
@@ -13984,10 +13963,10 @@
         <v>387</v>
       </c>
       <c r="E388" t="s">
-        <v>765</v>
+        <v>758</v>
       </c>
       <c r="F388" t="s">
-        <v>766</v>
+        <v>759</v>
       </c>
       <c r="G388" t="n">
         <v>1</v>
@@ -14013,10 +13992,10 @@
         <v>388</v>
       </c>
       <c r="E389" t="s">
-        <v>767</v>
+        <v>760</v>
       </c>
       <c r="F389" t="s">
-        <v>768</v>
+        <v>761</v>
       </c>
       <c r="G389" t="n">
         <v>1</v>
@@ -14042,10 +14021,10 @@
         <v>389</v>
       </c>
       <c r="E390" t="s">
-        <v>769</v>
+        <v>762</v>
       </c>
       <c r="F390" t="s">
-        <v>770</v>
+        <v>763</v>
       </c>
       <c r="G390" t="n">
         <v>1</v>
@@ -14071,10 +14050,10 @@
         <v>390</v>
       </c>
       <c r="E391" t="s">
-        <v>771</v>
+        <v>764</v>
       </c>
       <c r="F391" t="s">
-        <v>772</v>
+        <v>765</v>
       </c>
       <c r="G391" t="n">
         <v>1</v>
@@ -14100,10 +14079,10 @@
         <v>391</v>
       </c>
       <c r="E392" t="s">
-        <v>773</v>
+        <v>766</v>
       </c>
       <c r="F392" t="s">
-        <v>774</v>
+        <v>767</v>
       </c>
       <c r="G392" t="n">
         <v>1</v>
@@ -14129,10 +14108,10 @@
         <v>392</v>
       </c>
       <c r="E393" t="s">
-        <v>775</v>
+        <v>768</v>
       </c>
       <c r="F393" t="s">
-        <v>776</v>
+        <v>769</v>
       </c>
       <c r="G393" t="n">
         <v>1</v>
@@ -14158,10 +14137,10 @@
         <v>393</v>
       </c>
       <c r="E394" t="s">
-        <v>777</v>
+        <v>770</v>
       </c>
       <c r="F394" t="s">
-        <v>778</v>
+        <v>771</v>
       </c>
       <c r="G394" t="n">
         <v>1</v>
@@ -14187,10 +14166,10 @@
         <v>394</v>
       </c>
       <c r="E395" t="s">
-        <v>779</v>
+        <v>772</v>
       </c>
       <c r="F395" t="s">
-        <v>780</v>
+        <v>773</v>
       </c>
       <c r="G395" t="n">
         <v>1</v>
@@ -14216,10 +14195,10 @@
         <v>395</v>
       </c>
       <c r="E396" t="s">
-        <v>781</v>
+        <v>774</v>
       </c>
       <c r="F396" t="s">
-        <v>782</v>
+        <v>775</v>
       </c>
       <c r="G396" t="n">
         <v>1</v>
@@ -14245,10 +14224,10 @@
         <v>396</v>
       </c>
       <c r="E397" t="s">
-        <v>783</v>
+        <v>776</v>
       </c>
       <c r="F397" t="s">
-        <v>784</v>
+        <v>777</v>
       </c>
       <c r="G397" t="n">
         <v>1</v>
@@ -14274,10 +14253,10 @@
         <v>397</v>
       </c>
       <c r="E398" t="s">
-        <v>785</v>
+        <v>778</v>
       </c>
       <c r="F398" t="s">
-        <v>786</v>
+        <v>779</v>
       </c>
       <c r="G398" t="n">
         <v>1</v>
@@ -14303,10 +14282,10 @@
         <v>398</v>
       </c>
       <c r="E399" t="s">
-        <v>787</v>
+        <v>780</v>
       </c>
       <c r="F399" t="s">
-        <v>788</v>
+        <v>781</v>
       </c>
       <c r="G399" t="n">
         <v>1</v>
@@ -14332,10 +14311,10 @@
         <v>399</v>
       </c>
       <c r="E400" t="s">
-        <v>789</v>
+        <v>782</v>
       </c>
       <c r="F400" t="s">
-        <v>790</v>
+        <v>783</v>
       </c>
       <c r="G400" t="n">
         <v>1</v>
@@ -14361,10 +14340,10 @@
         <v>400</v>
       </c>
       <c r="E401" t="s">
-        <v>791</v>
+        <v>784</v>
       </c>
       <c r="F401" t="s">
-        <v>792</v>
+        <v>785</v>
       </c>
       <c r="G401" t="n">
         <v>1</v>
